--- a/Dataset/15/나의 해방일지_학습 (15)/해방일지5.xlsx
+++ b/Dataset/15/나의 해방일지_학습 (15)/해방일지5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DooDoo\Desktop\05.25 학습\나의 해방일지_학습 (15)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doohk\Desktop\GIST\4학년 1학기\AI 프로젝트\AI\Dataset\15\나의 해방일지_학습 (15)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C988C455-8C64-4028-8C70-5C754B13A531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10558B7A-E398-47BD-8FDF-DBCB2D0F67F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2914" yWindow="2914" windowWidth="24686" windowHeight="13055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="1532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="1533">
   <si>
     <t>Time</t>
   </si>
@@ -4633,6 +4633,9 @@
   <si>
     <t>fixed-label</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sigmoid_label</t>
   </si>
 </sst>
 </file>
@@ -5004,19 +5007,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E776"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A504" workbookViewId="0">
-      <selection activeCell="F768" sqref="F768"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="70" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5030,10 +5032,10 @@
         <v>1531</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -5048,7 +5050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -5063,7 +5065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -5078,7 +5080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -5096,7 +5098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -5111,7 +5113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -5126,7 +5128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -5141,7 +5143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -5159,7 +5161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -5174,7 +5176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -5189,7 +5191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -5204,7 +5206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -5219,7 +5221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -5234,7 +5236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -5249,7 +5251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -5264,7 +5266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -5279,7 +5281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -5294,7 +5296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -5309,7 +5311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -5327,7 +5329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -5342,7 +5344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -5357,7 +5359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -5375,7 +5377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -5390,7 +5392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -5405,7 +5407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -5420,7 +5422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -5435,7 +5437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -5450,7 +5452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -5468,7 +5470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -5483,7 +5485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -5498,7 +5500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -5513,7 +5515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -5531,7 +5533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>67</v>
       </c>
@@ -5546,7 +5548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>69</v>
       </c>
@@ -5561,7 +5563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>71</v>
       </c>
@@ -5576,7 +5578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>73</v>
       </c>
@@ -5591,7 +5593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>75</v>
       </c>
@@ -5606,7 +5608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -5621,7 +5623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -5636,7 +5638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>81</v>
       </c>
@@ -5651,7 +5653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>83</v>
       </c>
@@ -5669,7 +5671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>85</v>
       </c>
@@ -5684,7 +5686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -5699,7 +5701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -5714,7 +5716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -5729,7 +5731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -5744,7 +5746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -5759,7 +5761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -5774,7 +5776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -5789,7 +5791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -5804,7 +5806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>103</v>
       </c>
@@ -5819,7 +5821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>105</v>
       </c>
@@ -5837,7 +5839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>107</v>
       </c>
@@ -5855,7 +5857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>109</v>
       </c>
@@ -5870,7 +5872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>111</v>
       </c>
@@ -5888,7 +5890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>113</v>
       </c>
@@ -5903,7 +5905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>115</v>
       </c>
@@ -5921,7 +5923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>117</v>
       </c>
@@ -5936,7 +5938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>119</v>
       </c>
@@ -5951,7 +5953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>121</v>
       </c>
@@ -5966,7 +5968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>123</v>
       </c>
@@ -5981,7 +5983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>125</v>
       </c>
@@ -5999,7 +6001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>127</v>
       </c>
@@ -6014,7 +6016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -6029,7 +6031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>131</v>
       </c>
@@ -6044,7 +6046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>133</v>
       </c>
@@ -6059,7 +6061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>135</v>
       </c>
@@ -6074,7 +6076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>137</v>
       </c>
@@ -6089,7 +6091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>139</v>
       </c>
@@ -6104,7 +6106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>141</v>
       </c>
@@ -6119,7 +6121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>143</v>
       </c>
@@ -6134,7 +6136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>145</v>
       </c>
@@ -6149,7 +6151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>147</v>
       </c>
@@ -6164,7 +6166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>149</v>
       </c>
@@ -6179,7 +6181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>151</v>
       </c>
@@ -6194,7 +6196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>153</v>
       </c>
@@ -6212,7 +6214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>155</v>
       </c>
@@ -6227,7 +6229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>157</v>
       </c>
@@ -6242,7 +6244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>159</v>
       </c>
@@ -6257,7 +6259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>161</v>
       </c>
@@ -6272,7 +6274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>163</v>
       </c>
@@ -6287,7 +6289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>165</v>
       </c>
@@ -6302,7 +6304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>167</v>
       </c>
@@ -6317,7 +6319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>169</v>
       </c>
@@ -6332,7 +6334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>171</v>
       </c>
@@ -6347,7 +6349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>173</v>
       </c>
@@ -6362,7 +6364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>175</v>
       </c>
@@ -6377,7 +6379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>177</v>
       </c>
@@ -6392,7 +6394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>179</v>
       </c>
@@ -6407,7 +6409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>181</v>
       </c>
@@ -6422,7 +6424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>183</v>
       </c>
@@ -6437,7 +6439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>185</v>
       </c>
@@ -6452,7 +6454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>187</v>
       </c>
@@ -6467,7 +6469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>189</v>
       </c>
@@ -6482,7 +6484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>191</v>
       </c>
@@ -6500,7 +6502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>193</v>
       </c>
@@ -6515,7 +6517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>195</v>
       </c>
@@ -6530,7 +6532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>197</v>
       </c>
@@ -6545,7 +6547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>199</v>
       </c>
@@ -6560,7 +6562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>201</v>
       </c>
@@ -6575,7 +6577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>203</v>
       </c>
@@ -6590,7 +6592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>205</v>
       </c>
@@ -6605,7 +6607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>207</v>
       </c>
@@ -6620,7 +6622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>209</v>
       </c>
@@ -6635,7 +6637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>211</v>
       </c>
@@ -6653,7 +6655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>213</v>
       </c>
@@ -6671,7 +6673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>215</v>
       </c>
@@ -6686,7 +6688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>217</v>
       </c>
@@ -6701,7 +6703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>219</v>
       </c>
@@ -6716,7 +6718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>221</v>
       </c>
@@ -6734,7 +6736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>223</v>
       </c>
@@ -6749,7 +6751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>225</v>
       </c>
@@ -6764,7 +6766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>227</v>
       </c>
@@ -6779,7 +6781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>229</v>
       </c>
@@ -6797,7 +6799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>231</v>
       </c>
@@ -6812,7 +6814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>233</v>
       </c>
@@ -6830,7 +6832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>235</v>
       </c>
@@ -6845,7 +6847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>237</v>
       </c>
@@ -6860,7 +6862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>239</v>
       </c>
@@ -6875,7 +6877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>241</v>
       </c>
@@ -6893,7 +6895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
         <v>243</v>
       </c>
@@ -6908,7 +6910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
         <v>245</v>
       </c>
@@ -6923,7 +6925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
         <v>247</v>
       </c>
@@ -6938,7 +6940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
         <v>249</v>
       </c>
@@ -6953,7 +6955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
         <v>251</v>
       </c>
@@ -6971,7 +6973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
         <v>253</v>
       </c>
@@ -6986,7 +6988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
         <v>255</v>
       </c>
@@ -7001,7 +7003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
         <v>257</v>
       </c>
@@ -7016,7 +7018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
         <v>259</v>
       </c>
@@ -7031,7 +7033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
         <v>261</v>
       </c>
@@ -7046,7 +7048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
         <v>263</v>
       </c>
@@ -7061,7 +7063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
         <v>265</v>
       </c>
@@ -7076,7 +7078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
         <v>267</v>
       </c>
@@ -7091,7 +7093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
         <v>269</v>
       </c>
@@ -7109,7 +7111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
         <v>270</v>
       </c>
@@ -7124,7 +7126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
         <v>272</v>
       </c>
@@ -7139,7 +7141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
         <v>274</v>
       </c>
@@ -7154,7 +7156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
         <v>276</v>
       </c>
@@ -7169,7 +7171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
         <v>278</v>
       </c>
@@ -7187,7 +7189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
         <v>280</v>
       </c>
@@ -7202,7 +7204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
         <v>282</v>
       </c>
@@ -7220,7 +7222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
         <v>284</v>
       </c>
@@ -7235,7 +7237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
         <v>286</v>
       </c>
@@ -7253,7 +7255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
         <v>288</v>
       </c>
@@ -7268,7 +7270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
         <v>290</v>
       </c>
@@ -7283,7 +7285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
         <v>292</v>
       </c>
@@ -7298,7 +7300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
         <v>294</v>
       </c>
@@ -7316,7 +7318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
         <v>296</v>
       </c>
@@ -7331,7 +7333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
         <v>298</v>
       </c>
@@ -7346,7 +7348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
         <v>300</v>
       </c>
@@ -7361,7 +7363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
         <v>302</v>
       </c>
@@ -7379,7 +7381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
         <v>304</v>
       </c>
@@ -7397,7 +7399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
         <v>306</v>
       </c>
@@ -7412,7 +7414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
         <v>308</v>
       </c>
@@ -7427,7 +7429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
         <v>310</v>
       </c>
@@ -7445,7 +7447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
         <v>312</v>
       </c>
@@ -7460,7 +7462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
         <v>314</v>
       </c>
@@ -7475,7 +7477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
         <v>316</v>
       </c>
@@ -7490,7 +7492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
         <v>317</v>
       </c>
@@ -7505,7 +7507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
         <v>318</v>
       </c>
@@ -7520,7 +7522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
         <v>320</v>
       </c>
@@ -7535,7 +7537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
         <v>322</v>
       </c>
@@ -7550,7 +7552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
         <v>324</v>
       </c>
@@ -7565,7 +7567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
         <v>326</v>
       </c>
@@ -7583,7 +7585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
         <v>328</v>
       </c>
@@ -7598,7 +7600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
         <v>330</v>
       </c>
@@ -7613,7 +7615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
         <v>332</v>
       </c>
@@ -7628,7 +7630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
         <v>334</v>
       </c>
@@ -7646,7 +7648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
         <v>336</v>
       </c>
@@ -7661,7 +7663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
         <v>338</v>
       </c>
@@ -7676,7 +7678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
         <v>340</v>
       </c>
@@ -7691,7 +7693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
         <v>342</v>
       </c>
@@ -7706,7 +7708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
         <v>344</v>
       </c>
@@ -7721,7 +7723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
         <v>346</v>
       </c>
@@ -7736,7 +7738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="s">
         <v>348</v>
       </c>
@@ -7751,7 +7753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
         <v>350</v>
       </c>
@@ -7766,7 +7768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
         <v>352</v>
       </c>
@@ -7781,7 +7783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
         <v>354</v>
       </c>
@@ -7796,7 +7798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
         <v>356</v>
       </c>
@@ -7811,7 +7813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
         <v>358</v>
       </c>
@@ -7826,7 +7828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
         <v>360</v>
       </c>
@@ -7844,7 +7846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
         <v>362</v>
       </c>
@@ -7859,7 +7861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
         <v>364</v>
       </c>
@@ -7874,7 +7876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
         <v>366</v>
       </c>
@@ -7889,7 +7891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
         <v>368</v>
       </c>
@@ -7904,7 +7906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
         <v>370</v>
       </c>
@@ -7919,7 +7921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
         <v>372</v>
       </c>
@@ -7934,7 +7936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
         <v>374</v>
       </c>
@@ -7949,7 +7951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
         <v>376</v>
       </c>
@@ -7964,7 +7966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
         <v>378</v>
       </c>
@@ -7979,7 +7981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
         <v>380</v>
       </c>
@@ -7994,7 +7996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="s">
         <v>382</v>
       </c>
@@ -8012,7 +8014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
         <v>384</v>
       </c>
@@ -8027,7 +8029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="s">
         <v>386</v>
       </c>
@@ -8042,7 +8044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
         <v>388</v>
       </c>
@@ -8057,7 +8059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
         <v>390</v>
       </c>
@@ -8072,7 +8074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" t="s">
         <v>392</v>
       </c>
@@ -8087,7 +8089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" t="s">
         <v>394</v>
       </c>
@@ -8102,7 +8104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" t="s">
         <v>396</v>
       </c>
@@ -8117,7 +8119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" t="s">
         <v>398</v>
       </c>
@@ -8135,7 +8137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" t="s">
         <v>400</v>
       </c>
@@ -8150,7 +8152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" t="s">
         <v>402</v>
       </c>
@@ -8165,7 +8167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" t="s">
         <v>404</v>
       </c>
@@ -8180,7 +8182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="s">
         <v>406</v>
       </c>
@@ -8198,7 +8200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" t="s">
         <v>408</v>
       </c>
@@ -8216,7 +8218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" t="s">
         <v>410</v>
       </c>
@@ -8231,7 +8233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" t="s">
         <v>412</v>
       </c>
@@ -8246,7 +8248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" t="s">
         <v>414</v>
       </c>
@@ -8261,7 +8263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" t="s">
         <v>416</v>
       </c>
@@ -8276,7 +8278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" t="s">
         <v>418</v>
       </c>
@@ -8291,7 +8293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" t="s">
         <v>420</v>
       </c>
@@ -8306,7 +8308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" t="s">
         <v>422</v>
       </c>
@@ -8321,7 +8323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" t="s">
         <v>424</v>
       </c>
@@ -8339,7 +8341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" t="s">
         <v>426</v>
       </c>
@@ -8354,7 +8356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" t="s">
         <v>428</v>
       </c>
@@ -8369,7 +8371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" t="s">
         <v>430</v>
       </c>
@@ -8384,7 +8386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" t="s">
         <v>432</v>
       </c>
@@ -8399,7 +8401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" t="s">
         <v>434</v>
       </c>
@@ -8414,7 +8416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" t="s">
         <v>436</v>
       </c>
@@ -8429,7 +8431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" t="s">
         <v>438</v>
       </c>
@@ -8444,7 +8446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" t="s">
         <v>440</v>
       </c>
@@ -8462,7 +8464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" t="s">
         <v>442</v>
       </c>
@@ -8477,7 +8479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" t="s">
         <v>444</v>
       </c>
@@ -8492,7 +8494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" t="s">
         <v>446</v>
       </c>
@@ -8507,7 +8509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" t="s">
         <v>448</v>
       </c>
@@ -8522,7 +8524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" t="s">
         <v>450</v>
       </c>
@@ -8537,7 +8539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" t="s">
         <v>452</v>
       </c>
@@ -8552,7 +8554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" t="s">
         <v>454</v>
       </c>
@@ -8567,7 +8569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" t="s">
         <v>456</v>
       </c>
@@ -8585,7 +8587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" t="s">
         <v>458</v>
       </c>
@@ -8603,7 +8605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" t="s">
         <v>460</v>
       </c>
@@ -8618,7 +8620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" t="s">
         <v>462</v>
       </c>
@@ -8636,7 +8638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" t="s">
         <v>464</v>
       </c>
@@ -8651,7 +8653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" t="s">
         <v>466</v>
       </c>
@@ -8666,7 +8668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" t="s">
         <v>468</v>
       </c>
@@ -8681,7 +8683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" t="s">
         <v>470</v>
       </c>
@@ -8696,7 +8698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" t="s">
         <v>472</v>
       </c>
@@ -8711,7 +8713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" t="s">
         <v>474</v>
       </c>
@@ -8726,7 +8728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" t="s">
         <v>476</v>
       </c>
@@ -8741,7 +8743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" t="s">
         <v>478</v>
       </c>
@@ -8756,7 +8758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" t="s">
         <v>480</v>
       </c>
@@ -8771,7 +8773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" t="s">
         <v>482</v>
       </c>
@@ -8786,7 +8788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" t="s">
         <v>484</v>
       </c>
@@ -8801,7 +8803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" t="s">
         <v>486</v>
       </c>
@@ -8819,7 +8821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" t="s">
         <v>488</v>
       </c>
@@ -8834,7 +8836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" t="s">
         <v>490</v>
       </c>
@@ -8849,7 +8851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" t="s">
         <v>492</v>
       </c>
@@ -8864,7 +8866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" t="s">
         <v>494</v>
       </c>
@@ -8879,7 +8881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" t="s">
         <v>496</v>
       </c>
@@ -8897,7 +8899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" t="s">
         <v>498</v>
       </c>
@@ -8912,7 +8914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" t="s">
         <v>500</v>
       </c>
@@ -8927,7 +8929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" t="s">
         <v>501</v>
       </c>
@@ -8942,7 +8944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" t="s">
         <v>503</v>
       </c>
@@ -8957,7 +8959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" t="s">
         <v>504</v>
       </c>
@@ -8972,7 +8974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" t="s">
         <v>505</v>
       </c>
@@ -8987,7 +8989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" t="s">
         <v>506</v>
       </c>
@@ -9002,7 +9004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" t="s">
         <v>508</v>
       </c>
@@ -9017,7 +9019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" t="s">
         <v>510</v>
       </c>
@@ -9035,7 +9037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" t="s">
         <v>512</v>
       </c>
@@ -9050,7 +9052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" t="s">
         <v>514</v>
       </c>
@@ -9068,7 +9070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" t="s">
         <v>516</v>
       </c>
@@ -9083,7 +9085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" t="s">
         <v>518</v>
       </c>
@@ -9101,7 +9103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" t="s">
         <v>520</v>
       </c>
@@ -9116,7 +9118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" t="s">
         <v>522</v>
       </c>
@@ -9131,7 +9133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" t="s">
         <v>524</v>
       </c>
@@ -9146,7 +9148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" t="s">
         <v>526</v>
       </c>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" t="s">
         <v>528</v>
       </c>
@@ -9176,7 +9178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" t="s">
         <v>530</v>
       </c>
@@ -9191,7 +9193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" t="s">
         <v>532</v>
       </c>
@@ -9206,7 +9208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" t="s">
         <v>534</v>
       </c>
@@ -9221,7 +9223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" t="s">
         <v>536</v>
       </c>
@@ -9236,7 +9238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" t="s">
         <v>538</v>
       </c>
@@ -9254,7 +9256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" t="s">
         <v>540</v>
       </c>
@@ -9269,7 +9271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" t="s">
         <v>542</v>
       </c>
@@ -9284,7 +9286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" t="s">
         <v>544</v>
       </c>
@@ -9299,7 +9301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" t="s">
         <v>546</v>
       </c>
@@ -9314,7 +9316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" t="s">
         <v>548</v>
       </c>
@@ -9329,7 +9331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" t="s">
         <v>550</v>
       </c>
@@ -9344,7 +9346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" t="s">
         <v>552</v>
       </c>
@@ -9359,7 +9361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" t="s">
         <v>554</v>
       </c>
@@ -9377,7 +9379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" t="s">
         <v>556</v>
       </c>
@@ -9392,7 +9394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" t="s">
         <v>558</v>
       </c>
@@ -9407,7 +9409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" t="s">
         <v>560</v>
       </c>
@@ -9422,7 +9424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" t="s">
         <v>561</v>
       </c>
@@ -9437,7 +9439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" t="s">
         <v>563</v>
       </c>
@@ -9452,7 +9454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" t="s">
         <v>565</v>
       </c>
@@ -9467,7 +9469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" t="s">
         <v>567</v>
       </c>
@@ -9485,7 +9487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" t="s">
         <v>569</v>
       </c>
@@ -9500,7 +9502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" t="s">
         <v>571</v>
       </c>
@@ -9518,7 +9520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" t="s">
         <v>573</v>
       </c>
@@ -9533,7 +9535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" t="s">
         <v>575</v>
       </c>
@@ -9548,7 +9550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" t="s">
         <v>577</v>
       </c>
@@ -9563,7 +9565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" t="s">
         <v>579</v>
       </c>
@@ -9578,7 +9580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" t="s">
         <v>581</v>
       </c>
@@ -9593,7 +9595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" t="s">
         <v>583</v>
       </c>
@@ -9608,7 +9610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" t="s">
         <v>584</v>
       </c>
@@ -9623,7 +9625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" t="s">
         <v>586</v>
       </c>
@@ -9638,7 +9640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" t="s">
         <v>588</v>
       </c>
@@ -9653,7 +9655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" t="s">
         <v>590</v>
       </c>
@@ -9668,7 +9670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" t="s">
         <v>592</v>
       </c>
@@ -9683,7 +9685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" t="s">
         <v>594</v>
       </c>
@@ -9698,7 +9700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" t="s">
         <v>596</v>
       </c>
@@ -9713,7 +9715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" t="s">
         <v>598</v>
       </c>
@@ -9728,7 +9730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" t="s">
         <v>600</v>
       </c>
@@ -9743,7 +9745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" t="s">
         <v>602</v>
       </c>
@@ -9758,7 +9760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" t="s">
         <v>604</v>
       </c>
@@ -9773,7 +9775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" t="s">
         <v>606</v>
       </c>
@@ -9788,7 +9790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" t="s">
         <v>608</v>
       </c>
@@ -9803,7 +9805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" t="s">
         <v>610</v>
       </c>
@@ -9818,7 +9820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" t="s">
         <v>612</v>
       </c>
@@ -9833,7 +9835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" t="s">
         <v>614</v>
       </c>
@@ -9848,7 +9850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" t="s">
         <v>616</v>
       </c>
@@ -9863,7 +9865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" t="s">
         <v>618</v>
       </c>
@@ -9878,7 +9880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" t="s">
         <v>620</v>
       </c>
@@ -9893,7 +9895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" t="s">
         <v>622</v>
       </c>
@@ -9908,7 +9910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" t="s">
         <v>624</v>
       </c>
@@ -9923,7 +9925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" t="s">
         <v>626</v>
       </c>
@@ -9938,7 +9940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" t="s">
         <v>628</v>
       </c>
@@ -9953,7 +9955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" t="s">
         <v>630</v>
       </c>
@@ -9968,7 +9970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" t="s">
         <v>632</v>
       </c>
@@ -9983,7 +9985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" t="s">
         <v>634</v>
       </c>
@@ -9998,7 +10000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" t="s">
         <v>636</v>
       </c>
@@ -10013,7 +10015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" t="s">
         <v>638</v>
       </c>
@@ -10028,7 +10030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" t="s">
         <v>640</v>
       </c>
@@ -10043,7 +10045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" t="s">
         <v>642</v>
       </c>
@@ -10058,7 +10060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" t="s">
         <v>644</v>
       </c>
@@ -10073,7 +10075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" t="s">
         <v>646</v>
       </c>
@@ -10088,7 +10090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" t="s">
         <v>648</v>
       </c>
@@ -10103,7 +10105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" t="s">
         <v>650</v>
       </c>
@@ -10118,7 +10120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" t="s">
         <v>652</v>
       </c>
@@ -10136,7 +10138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" t="s">
         <v>654</v>
       </c>
@@ -10151,7 +10153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" t="s">
         <v>656</v>
       </c>
@@ -10166,7 +10168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" t="s">
         <v>658</v>
       </c>
@@ -10184,7 +10186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" t="s">
         <v>660</v>
       </c>
@@ -10199,7 +10201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" t="s">
         <v>662</v>
       </c>
@@ -10214,7 +10216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" t="s">
         <v>664</v>
       </c>
@@ -10232,7 +10234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" t="s">
         <v>666</v>
       </c>
@@ -10247,7 +10249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" t="s">
         <v>668</v>
       </c>
@@ -10262,7 +10264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" t="s">
         <v>670</v>
       </c>
@@ -10277,7 +10279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" t="s">
         <v>672</v>
       </c>
@@ -10295,7 +10297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" t="s">
         <v>674</v>
       </c>
@@ -10313,7 +10315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" t="s">
         <v>676</v>
       </c>
@@ -10328,7 +10330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" t="s">
         <v>678</v>
       </c>
@@ -10343,7 +10345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" t="s">
         <v>680</v>
       </c>
@@ -10358,7 +10360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" t="s">
         <v>682</v>
       </c>
@@ -10373,7 +10375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" t="s">
         <v>684</v>
       </c>
@@ -10388,7 +10390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" t="s">
         <v>686</v>
       </c>
@@ -10403,7 +10405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" t="s">
         <v>688</v>
       </c>
@@ -10418,7 +10420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" t="s">
         <v>690</v>
       </c>
@@ -10433,7 +10435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" t="s">
         <v>692</v>
       </c>
@@ -10448,7 +10450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" t="s">
         <v>694</v>
       </c>
@@ -10466,7 +10468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" t="s">
         <v>696</v>
       </c>
@@ -10481,7 +10483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" t="s">
         <v>698</v>
       </c>
@@ -10496,7 +10498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" t="s">
         <v>700</v>
       </c>
@@ -10514,7 +10516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" t="s">
         <v>702</v>
       </c>
@@ -10529,7 +10531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" t="s">
         <v>704</v>
       </c>
@@ -10544,7 +10546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" t="s">
         <v>706</v>
       </c>
@@ -10562,7 +10564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" t="s">
         <v>708</v>
       </c>
@@ -10577,7 +10579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" t="s">
         <v>710</v>
       </c>
@@ -10592,7 +10594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" t="s">
         <v>712</v>
       </c>
@@ -10607,7 +10609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" t="s">
         <v>714</v>
       </c>
@@ -10622,7 +10624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" t="s">
         <v>716</v>
       </c>
@@ -10637,7 +10639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" t="s">
         <v>718</v>
       </c>
@@ -10652,7 +10654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" t="s">
         <v>720</v>
       </c>
@@ -10667,7 +10669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" t="s">
         <v>722</v>
       </c>
@@ -10682,7 +10684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" t="s">
         <v>724</v>
       </c>
@@ -10697,7 +10699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" t="s">
         <v>726</v>
       </c>
@@ -10712,7 +10714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" t="s">
         <v>728</v>
       </c>
@@ -10727,7 +10729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" t="s">
         <v>730</v>
       </c>
@@ -10742,7 +10744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" t="s">
         <v>732</v>
       </c>
@@ -10757,7 +10759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" t="s">
         <v>734</v>
       </c>
@@ -10772,7 +10774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" t="s">
         <v>736</v>
       </c>
@@ -10787,7 +10789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" t="s">
         <v>738</v>
       </c>
@@ -10802,7 +10804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" t="s">
         <v>740</v>
       </c>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" t="s">
         <v>742</v>
       </c>
@@ -10838,7 +10840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" t="s">
         <v>744</v>
       </c>
@@ -10853,7 +10855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" t="s">
         <v>746</v>
       </c>
@@ -10871,7 +10873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" t="s">
         <v>748</v>
       </c>
@@ -10886,7 +10888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" t="s">
         <v>750</v>
       </c>
@@ -10901,7 +10903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" t="s">
         <v>752</v>
       </c>
@@ -10916,7 +10918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" t="s">
         <v>754</v>
       </c>
@@ -10931,7 +10933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" t="s">
         <v>756</v>
       </c>
@@ -10946,7 +10948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" t="s">
         <v>758</v>
       </c>
@@ -10961,7 +10963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" t="s">
         <v>760</v>
       </c>
@@ -10976,7 +10978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" t="s">
         <v>762</v>
       </c>
@@ -10991,7 +10993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" t="s">
         <v>764</v>
       </c>
@@ -11006,7 +11008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" t="s">
         <v>766</v>
       </c>
@@ -11021,7 +11023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" t="s">
         <v>768</v>
       </c>
@@ -11036,7 +11038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" t="s">
         <v>770</v>
       </c>
@@ -11051,7 +11053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" t="s">
         <v>772</v>
       </c>
@@ -11066,7 +11068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" t="s">
         <v>774</v>
       </c>
@@ -11081,7 +11083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" t="s">
         <v>776</v>
       </c>
@@ -11099,7 +11101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" t="s">
         <v>778</v>
       </c>
@@ -11114,7 +11116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" t="s">
         <v>780</v>
       </c>
@@ -11129,7 +11131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" t="s">
         <v>782</v>
       </c>
@@ -11144,7 +11146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" t="s">
         <v>784</v>
       </c>
@@ -11162,7 +11164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" t="s">
         <v>786</v>
       </c>
@@ -11177,7 +11179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" t="s">
         <v>788</v>
       </c>
@@ -11192,7 +11194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A400" t="s">
         <v>790</v>
       </c>
@@ -11207,7 +11209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A401" t="s">
         <v>792</v>
       </c>
@@ -11225,7 +11227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A402" t="s">
         <v>794</v>
       </c>
@@ -11240,7 +11242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A403" t="s">
         <v>796</v>
       </c>
@@ -11255,7 +11257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" t="s">
         <v>798</v>
       </c>
@@ -11273,7 +11275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A405" t="s">
         <v>800</v>
       </c>
@@ -11291,7 +11293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A406" t="s">
         <v>802</v>
       </c>
@@ -11309,7 +11311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A407" t="s">
         <v>804</v>
       </c>
@@ -11327,7 +11329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A408" t="s">
         <v>806</v>
       </c>
@@ -11345,7 +11347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A409" t="s">
         <v>808</v>
       </c>
@@ -11360,7 +11362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A410" t="s">
         <v>810</v>
       </c>
@@ -11375,7 +11377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A411" t="s">
         <v>812</v>
       </c>
@@ -11390,7 +11392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A412" t="s">
         <v>814</v>
       </c>
@@ -11408,7 +11410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A413" t="s">
         <v>816</v>
       </c>
@@ -11423,7 +11425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A414" t="s">
         <v>818</v>
       </c>
@@ -11438,7 +11440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A415" t="s">
         <v>820</v>
       </c>
@@ -11453,7 +11455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A416" t="s">
         <v>822</v>
       </c>
@@ -11468,7 +11470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A417" t="s">
         <v>823</v>
       </c>
@@ -11483,7 +11485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A418" t="s">
         <v>825</v>
       </c>
@@ -11501,7 +11503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A419" t="s">
         <v>827</v>
       </c>
@@ -11516,7 +11518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A420" t="s">
         <v>829</v>
       </c>
@@ -11531,7 +11533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A421" t="s">
         <v>831</v>
       </c>
@@ -11546,7 +11548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A422" t="s">
         <v>833</v>
       </c>
@@ -11561,7 +11563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A423" t="s">
         <v>835</v>
       </c>
@@ -11576,7 +11578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A424" t="s">
         <v>837</v>
       </c>
@@ -11591,7 +11593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A425" t="s">
         <v>839</v>
       </c>
@@ -11606,7 +11608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A426" t="s">
         <v>841</v>
       </c>
@@ -11621,7 +11623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A427" t="s">
         <v>843</v>
       </c>
@@ -11636,7 +11638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A428" t="s">
         <v>845</v>
       </c>
@@ -11651,7 +11653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A429" t="s">
         <v>847</v>
       </c>
@@ -11666,7 +11668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A430" t="s">
         <v>849</v>
       </c>
@@ -11681,7 +11683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A431" t="s">
         <v>851</v>
       </c>
@@ -11696,7 +11698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A432" t="s">
         <v>853</v>
       </c>
@@ -11714,7 +11716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A433" t="s">
         <v>855</v>
       </c>
@@ -11732,7 +11734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A434" t="s">
         <v>857</v>
       </c>
@@ -11747,7 +11749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A435" t="s">
         <v>859</v>
       </c>
@@ -11762,7 +11764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A436" t="s">
         <v>861</v>
       </c>
@@ -11780,7 +11782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A437" t="s">
         <v>863</v>
       </c>
@@ -11795,7 +11797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A438" t="s">
         <v>865</v>
       </c>
@@ -11813,7 +11815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A439" t="s">
         <v>867</v>
       </c>
@@ -11828,7 +11830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A440" t="s">
         <v>869</v>
       </c>
@@ -11846,7 +11848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A441" t="s">
         <v>871</v>
       </c>
@@ -11861,7 +11863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A442" t="s">
         <v>873</v>
       </c>
@@ -11876,7 +11878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A443" t="s">
         <v>875</v>
       </c>
@@ -11894,7 +11896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A444" t="s">
         <v>877</v>
       </c>
@@ -11909,7 +11911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A445" t="s">
         <v>879</v>
       </c>
@@ -11924,7 +11926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A446" t="s">
         <v>881</v>
       </c>
@@ -11939,7 +11941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A447" t="s">
         <v>883</v>
       </c>
@@ -11957,7 +11959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A448" t="s">
         <v>885</v>
       </c>
@@ -11975,7 +11977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A449" t="s">
         <v>887</v>
       </c>
@@ -11990,7 +11992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A450" t="s">
         <v>889</v>
       </c>
@@ -12005,7 +12007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A451" t="s">
         <v>891</v>
       </c>
@@ -12023,7 +12025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A452" t="s">
         <v>893</v>
       </c>
@@ -12038,7 +12040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A453" t="s">
         <v>895</v>
       </c>
@@ -12053,7 +12055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A454" t="s">
         <v>897</v>
       </c>
@@ -12068,7 +12070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A455" t="s">
         <v>899</v>
       </c>
@@ -12083,7 +12085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A456" t="s">
         <v>901</v>
       </c>
@@ -12098,7 +12100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A457" t="s">
         <v>903</v>
       </c>
@@ -12113,7 +12115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A458" t="s">
         <v>905</v>
       </c>
@@ -12128,7 +12130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A459" t="s">
         <v>907</v>
       </c>
@@ -12143,7 +12145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A460" t="s">
         <v>909</v>
       </c>
@@ -12158,7 +12160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A461" t="s">
         <v>911</v>
       </c>
@@ -12173,7 +12175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A462" t="s">
         <v>913</v>
       </c>
@@ -12188,7 +12190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A463" t="s">
         <v>915</v>
       </c>
@@ -12206,7 +12208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A464" t="s">
         <v>917</v>
       </c>
@@ -12221,7 +12223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A465" t="s">
         <v>919</v>
       </c>
@@ -12236,7 +12238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A466" t="s">
         <v>921</v>
       </c>
@@ -12251,7 +12253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A467" t="s">
         <v>923</v>
       </c>
@@ -12266,7 +12268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A468" t="s">
         <v>925</v>
       </c>
@@ -12281,7 +12283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A469" t="s">
         <v>927</v>
       </c>
@@ -12299,7 +12301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A470" t="s">
         <v>929</v>
       </c>
@@ -12314,7 +12316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A471" t="s">
         <v>931</v>
       </c>
@@ -12329,7 +12331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A472" t="s">
         <v>933</v>
       </c>
@@ -12347,7 +12349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A473" t="s">
         <v>935</v>
       </c>
@@ -12365,7 +12367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A474" t="s">
         <v>937</v>
       </c>
@@ -12380,7 +12382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A475" t="s">
         <v>939</v>
       </c>
@@ -12395,7 +12397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A476" t="s">
         <v>941</v>
       </c>
@@ -12410,7 +12412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A477" t="s">
         <v>943</v>
       </c>
@@ -12428,7 +12430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A478" t="s">
         <v>945</v>
       </c>
@@ -12443,7 +12445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A479" t="s">
         <v>947</v>
       </c>
@@ -12461,7 +12463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A480" t="s">
         <v>949</v>
       </c>
@@ -12476,7 +12478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A481" t="s">
         <v>951</v>
       </c>
@@ -12494,7 +12496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A482" t="s">
         <v>953</v>
       </c>
@@ -12509,7 +12511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A483" t="s">
         <v>955</v>
       </c>
@@ -12524,7 +12526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A484" t="s">
         <v>957</v>
       </c>
@@ -12542,7 +12544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A485" t="s">
         <v>959</v>
       </c>
@@ -12557,7 +12559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A486" t="s">
         <v>961</v>
       </c>
@@ -12572,7 +12574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A487" t="s">
         <v>963</v>
       </c>
@@ -12587,7 +12589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A488" t="s">
         <v>965</v>
       </c>
@@ -12605,7 +12607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A489" t="s">
         <v>967</v>
       </c>
@@ -12620,7 +12622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A490" t="s">
         <v>969</v>
       </c>
@@ -12635,7 +12637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A491" t="s">
         <v>971</v>
       </c>
@@ -12650,7 +12652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A492" t="s">
         <v>973</v>
       </c>
@@ -12665,7 +12667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A493" t="s">
         <v>975</v>
       </c>
@@ -12680,7 +12682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A494" t="s">
         <v>977</v>
       </c>
@@ -12695,7 +12697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A495" t="s">
         <v>979</v>
       </c>
@@ -12710,7 +12712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A496" t="s">
         <v>981</v>
       </c>
@@ -12725,7 +12727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A497" t="s">
         <v>983</v>
       </c>
@@ -12740,7 +12742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A498" t="s">
         <v>985</v>
       </c>
@@ -12755,7 +12757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A499" t="s">
         <v>987</v>
       </c>
@@ -12770,7 +12772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A500" t="s">
         <v>989</v>
       </c>
@@ -12785,7 +12787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A501" t="s">
         <v>991</v>
       </c>
@@ -12800,7 +12802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A502" t="s">
         <v>993</v>
       </c>
@@ -12818,7 +12820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A503" t="s">
         <v>995</v>
       </c>
@@ -12833,7 +12835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A504" t="s">
         <v>997</v>
       </c>
@@ -12851,7 +12853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A505" t="s">
         <v>999</v>
       </c>
@@ -12866,7 +12868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A506" t="s">
         <v>1001</v>
       </c>
@@ -12881,7 +12883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A507" t="s">
         <v>1003</v>
       </c>
@@ -12896,7 +12898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A508" t="s">
         <v>1005</v>
       </c>
@@ -12911,7 +12913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A509" t="s">
         <v>1007</v>
       </c>
@@ -12926,7 +12928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A510" t="s">
         <v>1009</v>
       </c>
@@ -12941,7 +12943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A511" t="s">
         <v>1011</v>
       </c>
@@ -12956,7 +12958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A512" t="s">
         <v>1013</v>
       </c>
@@ -12971,7 +12973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A513" t="s">
         <v>1015</v>
       </c>
@@ -12986,7 +12988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A514" t="s">
         <v>1017</v>
       </c>
@@ -13001,7 +13003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A515" t="s">
         <v>1019</v>
       </c>
@@ -13016,7 +13018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A516" t="s">
         <v>1021</v>
       </c>
@@ -13031,7 +13033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A517" t="s">
         <v>1023</v>
       </c>
@@ -13046,7 +13048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A518" t="s">
         <v>1025</v>
       </c>
@@ -13061,7 +13063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A519" t="s">
         <v>1027</v>
       </c>
@@ -13076,7 +13078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A520" t="s">
         <v>1029</v>
       </c>
@@ -13091,7 +13093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A521" t="s">
         <v>1031</v>
       </c>
@@ -13109,7 +13111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A522" t="s">
         <v>1033</v>
       </c>
@@ -13124,7 +13126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A523" t="s">
         <v>1035</v>
       </c>
@@ -13139,7 +13141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A524" t="s">
         <v>1037</v>
       </c>
@@ -13154,7 +13156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A525" t="s">
         <v>1039</v>
       </c>
@@ -13169,7 +13171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A526" t="s">
         <v>1041</v>
       </c>
@@ -13184,7 +13186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A527" t="s">
         <v>1043</v>
       </c>
@@ -13199,7 +13201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A528" t="s">
         <v>1045</v>
       </c>
@@ -13214,7 +13216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A529" t="s">
         <v>1047</v>
       </c>
@@ -13229,7 +13231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A530" t="s">
         <v>1049</v>
       </c>
@@ -13244,7 +13246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A531" t="s">
         <v>1051</v>
       </c>
@@ -13259,7 +13261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A532" t="s">
         <v>1053</v>
       </c>
@@ -13274,7 +13276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A533" t="s">
         <v>1055</v>
       </c>
@@ -13289,7 +13291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A534" t="s">
         <v>1057</v>
       </c>
@@ -13307,7 +13309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A535" t="s">
         <v>1059</v>
       </c>
@@ -13322,7 +13324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A536" t="s">
         <v>1061</v>
       </c>
@@ -13337,7 +13339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A537" t="s">
         <v>1063</v>
       </c>
@@ -13355,7 +13357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A538" t="s">
         <v>1065</v>
       </c>
@@ -13370,7 +13372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A539" t="s">
         <v>1067</v>
       </c>
@@ -13385,7 +13387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A540" t="s">
         <v>1069</v>
       </c>
@@ -13400,7 +13402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A541" t="s">
         <v>1071</v>
       </c>
@@ -13415,7 +13417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A542" t="s">
         <v>1073</v>
       </c>
@@ -13430,7 +13432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A543" t="s">
         <v>1075</v>
       </c>
@@ -13445,7 +13447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A544" t="s">
         <v>1077</v>
       </c>
@@ -13460,7 +13462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A545" t="s">
         <v>1079</v>
       </c>
@@ -13475,7 +13477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A546" t="s">
         <v>1081</v>
       </c>
@@ -13490,7 +13492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A547" t="s">
         <v>1083</v>
       </c>
@@ -13505,7 +13507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A548" t="s">
         <v>1085</v>
       </c>
@@ -13520,7 +13522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A549" t="s">
         <v>1087</v>
       </c>
@@ -13535,7 +13537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A550" t="s">
         <v>1089</v>
       </c>
@@ -13550,7 +13552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A551" t="s">
         <v>1091</v>
       </c>
@@ -13565,7 +13567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A552" t="s">
         <v>1093</v>
       </c>
@@ -13580,7 +13582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A553" t="s">
         <v>1095</v>
       </c>
@@ -13598,7 +13600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A554" t="s">
         <v>1097</v>
       </c>
@@ -13613,7 +13615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A555" t="s">
         <v>1099</v>
       </c>
@@ -13628,7 +13630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A556" t="s">
         <v>1101</v>
       </c>
@@ -13643,7 +13645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A557" t="s">
         <v>1103</v>
       </c>
@@ -13658,7 +13660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A558" t="s">
         <v>1105</v>
       </c>
@@ -13673,7 +13675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A559" t="s">
         <v>1107</v>
       </c>
@@ -13688,7 +13690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A560" t="s">
         <v>1109</v>
       </c>
@@ -13703,7 +13705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A561" t="s">
         <v>1111</v>
       </c>
@@ -13718,7 +13720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A562" t="s">
         <v>1113</v>
       </c>
@@ -13733,7 +13735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A563" t="s">
         <v>1115</v>
       </c>
@@ -13748,7 +13750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A564" t="s">
         <v>1117</v>
       </c>
@@ -13763,7 +13765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A565" t="s">
         <v>1119</v>
       </c>
@@ -13778,7 +13780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A566" t="s">
         <v>1121</v>
       </c>
@@ -13793,7 +13795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A567" t="s">
         <v>1123</v>
       </c>
@@ -13808,7 +13810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A568" t="s">
         <v>1125</v>
       </c>
@@ -13823,7 +13825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A569" t="s">
         <v>1127</v>
       </c>
@@ -13841,7 +13843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A570" t="s">
         <v>1129</v>
       </c>
@@ -13859,7 +13861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A571" t="s">
         <v>1131</v>
       </c>
@@ -13877,7 +13879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A572" t="s">
         <v>1133</v>
       </c>
@@ -13892,7 +13894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A573" t="s">
         <v>1135</v>
       </c>
@@ -13907,7 +13909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A574" t="s">
         <v>1137</v>
       </c>
@@ -13922,7 +13924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A575" t="s">
         <v>1139</v>
       </c>
@@ -13937,7 +13939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A576" t="s">
         <v>1141</v>
       </c>
@@ -13952,7 +13954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A577" t="s">
         <v>1143</v>
       </c>
@@ -13970,7 +13972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A578" t="s">
         <v>1145</v>
       </c>
@@ -13985,7 +13987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A579" t="s">
         <v>1147</v>
       </c>
@@ -14003,7 +14005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A580" t="s">
         <v>1149</v>
       </c>
@@ -14018,7 +14020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A581" t="s">
         <v>1151</v>
       </c>
@@ -14033,7 +14035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A582" t="s">
         <v>1152</v>
       </c>
@@ -14048,7 +14050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A583" t="s">
         <v>1153</v>
       </c>
@@ -14063,7 +14065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A584" t="s">
         <v>1155</v>
       </c>
@@ -14078,7 +14080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A585" t="s">
         <v>1156</v>
       </c>
@@ -14093,7 +14095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A586" t="s">
         <v>1158</v>
       </c>
@@ -14108,7 +14110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A587" t="s">
         <v>1160</v>
       </c>
@@ -14123,7 +14125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A588" t="s">
         <v>1162</v>
       </c>
@@ -14138,7 +14140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A589" t="s">
         <v>1164</v>
       </c>
@@ -14156,7 +14158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A590" t="s">
         <v>1166</v>
       </c>
@@ -14171,7 +14173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A591" t="s">
         <v>1168</v>
       </c>
@@ -14186,7 +14188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A592" t="s">
         <v>1170</v>
       </c>
@@ -14204,7 +14206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A593" t="s">
         <v>1172</v>
       </c>
@@ -14219,7 +14221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A594" t="s">
         <v>1174</v>
       </c>
@@ -14234,7 +14236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A595" t="s">
         <v>1176</v>
       </c>
@@ -14249,7 +14251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A596" t="s">
         <v>1178</v>
       </c>
@@ -14264,7 +14266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A597" t="s">
         <v>1180</v>
       </c>
@@ -14279,7 +14281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A598" t="s">
         <v>1182</v>
       </c>
@@ -14294,7 +14296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A599" t="s">
         <v>1184</v>
       </c>
@@ -14309,7 +14311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A600" t="s">
         <v>1186</v>
       </c>
@@ -14324,7 +14326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A601" t="s">
         <v>1188</v>
       </c>
@@ -14339,7 +14341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A602" t="s">
         <v>1190</v>
       </c>
@@ -14354,7 +14356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A603" t="s">
         <v>1192</v>
       </c>
@@ -14369,7 +14371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A604" t="s">
         <v>1194</v>
       </c>
@@ -14384,7 +14386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A605" t="s">
         <v>1196</v>
       </c>
@@ -14399,7 +14401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A606" t="s">
         <v>1198</v>
       </c>
@@ -14414,7 +14416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A607" t="s">
         <v>1200</v>
       </c>
@@ -14429,7 +14431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A608" t="s">
         <v>1202</v>
       </c>
@@ -14444,7 +14446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A609" t="s">
         <v>1204</v>
       </c>
@@ -14459,7 +14461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A610" t="s">
         <v>1206</v>
       </c>
@@ -14474,7 +14476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A611" t="s">
         <v>1208</v>
       </c>
@@ -14489,7 +14491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A612" t="s">
         <v>1210</v>
       </c>
@@ -14504,7 +14506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A613" t="s">
         <v>1212</v>
       </c>
@@ -14519,7 +14521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A614" t="s">
         <v>1214</v>
       </c>
@@ -14534,7 +14536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A615" t="s">
         <v>1216</v>
       </c>
@@ -14549,7 +14551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A616" t="s">
         <v>1218</v>
       </c>
@@ -14564,7 +14566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A617" t="s">
         <v>1220</v>
       </c>
@@ -14579,7 +14581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A618" t="s">
         <v>1222</v>
       </c>
@@ -14594,7 +14596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A619" t="s">
         <v>1224</v>
       </c>
@@ -14609,7 +14611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A620" t="s">
         <v>1226</v>
       </c>
@@ -14624,7 +14626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A621" t="s">
         <v>1228</v>
       </c>
@@ -14639,7 +14641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A622" t="s">
         <v>1230</v>
       </c>
@@ -14654,7 +14656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A623" t="s">
         <v>1232</v>
       </c>
@@ -14669,7 +14671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A624" t="s">
         <v>1234</v>
       </c>
@@ -14684,7 +14686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A625" t="s">
         <v>1236</v>
       </c>
@@ -14702,7 +14704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A626" t="s">
         <v>1238</v>
       </c>
@@ -14717,7 +14719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A627" t="s">
         <v>1240</v>
       </c>
@@ -14732,7 +14734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A628" t="s">
         <v>1242</v>
       </c>
@@ -14747,7 +14749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A629" t="s">
         <v>1244</v>
       </c>
@@ -14765,7 +14767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A630" t="s">
         <v>1246</v>
       </c>
@@ -14780,7 +14782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A631" t="s">
         <v>1248</v>
       </c>
@@ -14795,7 +14797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A632" t="s">
         <v>1250</v>
       </c>
@@ -14810,7 +14812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A633" t="s">
         <v>1252</v>
       </c>
@@ -14825,7 +14827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A634" t="s">
         <v>1254</v>
       </c>
@@ -14840,7 +14842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A635" t="s">
         <v>1256</v>
       </c>
@@ -14855,7 +14857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A636" t="s">
         <v>1258</v>
       </c>
@@ -14870,7 +14872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A637" t="s">
         <v>1260</v>
       </c>
@@ -14885,7 +14887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A638" t="s">
         <v>1262</v>
       </c>
@@ -14900,7 +14902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A639" t="s">
         <v>1264</v>
       </c>
@@ -14915,7 +14917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A640" t="s">
         <v>1266</v>
       </c>
@@ -14930,7 +14932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A641" t="s">
         <v>1268</v>
       </c>
@@ -14945,7 +14947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A642" t="s">
         <v>1270</v>
       </c>
@@ -14960,7 +14962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A643" t="s">
         <v>1272</v>
       </c>
@@ -14978,7 +14980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A644" t="s">
         <v>1274</v>
       </c>
@@ -14993,7 +14995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A645" t="s">
         <v>1276</v>
       </c>
@@ -15011,7 +15013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A646" t="s">
         <v>1278</v>
       </c>
@@ -15026,7 +15028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="647" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A647" t="s">
         <v>1280</v>
       </c>
@@ -15041,7 +15043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A648" t="s">
         <v>1282</v>
       </c>
@@ -15056,7 +15058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A649" t="s">
         <v>1284</v>
       </c>
@@ -15071,7 +15073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A650" t="s">
         <v>1286</v>
       </c>
@@ -15086,7 +15088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A651" t="s">
         <v>1288</v>
       </c>
@@ -15101,7 +15103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A652" t="s">
         <v>1290</v>
       </c>
@@ -15116,7 +15118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A653" t="s">
         <v>1292</v>
       </c>
@@ -15131,7 +15133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A654" t="s">
         <v>1294</v>
       </c>
@@ -15146,7 +15148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A655" t="s">
         <v>1296</v>
       </c>
@@ -15161,7 +15163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A656" t="s">
         <v>1298</v>
       </c>
@@ -15176,7 +15178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A657" t="s">
         <v>1300</v>
       </c>
@@ -15191,7 +15193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A658" t="s">
         <v>1302</v>
       </c>
@@ -15206,7 +15208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A659" t="s">
         <v>1304</v>
       </c>
@@ -15221,7 +15223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A660" t="s">
         <v>1306</v>
       </c>
@@ -15236,7 +15238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A661" t="s">
         <v>1308</v>
       </c>
@@ -15251,7 +15253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A662" t="s">
         <v>1310</v>
       </c>
@@ -15266,7 +15268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A663" t="s">
         <v>1312</v>
       </c>
@@ -15281,7 +15283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A664" t="s">
         <v>1314</v>
       </c>
@@ -15296,7 +15298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A665" t="s">
         <v>1315</v>
       </c>
@@ -15311,7 +15313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A666" t="s">
         <v>1317</v>
       </c>
@@ -15326,7 +15328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A667" t="s">
         <v>1319</v>
       </c>
@@ -15341,7 +15343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A668" t="s">
         <v>1321</v>
       </c>
@@ -15356,7 +15358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A669" t="s">
         <v>1323</v>
       </c>
@@ -15371,7 +15373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A670" t="s">
         <v>1325</v>
       </c>
@@ -15386,7 +15388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="671" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A671" t="s">
         <v>1327</v>
       </c>
@@ -15401,7 +15403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="672" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A672" t="s">
         <v>1329</v>
       </c>
@@ -15416,7 +15418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A673" t="s">
         <v>1331</v>
       </c>
@@ -15431,7 +15433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A674" t="s">
         <v>1333</v>
       </c>
@@ -15446,7 +15448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="675" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A675" t="s">
         <v>1335</v>
       </c>
@@ -15461,7 +15463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A676" t="s">
         <v>1337</v>
       </c>
@@ -15476,7 +15478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A677" t="s">
         <v>1339</v>
       </c>
@@ -15491,7 +15493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A678" t="s">
         <v>1341</v>
       </c>
@@ -15509,7 +15511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A679" t="s">
         <v>1343</v>
       </c>
@@ -15524,7 +15526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A680" t="s">
         <v>1345</v>
       </c>
@@ -15539,7 +15541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A681" t="s">
         <v>1347</v>
       </c>
@@ -15554,7 +15556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A682" t="s">
         <v>1349</v>
       </c>
@@ -15569,7 +15571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="683" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A683" t="s">
         <v>1351</v>
       </c>
@@ -15584,7 +15586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A684" t="s">
         <v>1353</v>
       </c>
@@ -15602,7 +15604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A685" t="s">
         <v>1355</v>
       </c>
@@ -15617,7 +15619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A686" t="s">
         <v>1357</v>
       </c>
@@ -15632,7 +15634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A687" t="s">
         <v>1358</v>
       </c>
@@ -15647,7 +15649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A688" t="s">
         <v>1360</v>
       </c>
@@ -15662,7 +15664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A689" t="s">
         <v>1362</v>
       </c>
@@ -15677,7 +15679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A690" t="s">
         <v>1364</v>
       </c>
@@ -15692,7 +15694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A691" t="s">
         <v>1366</v>
       </c>
@@ -15707,7 +15709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A692" t="s">
         <v>1368</v>
       </c>
@@ -15722,7 +15724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="693" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A693" t="s">
         <v>1370</v>
       </c>
@@ -15737,7 +15739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A694" t="s">
         <v>1372</v>
       </c>
@@ -15755,7 +15757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A695" t="s">
         <v>1374</v>
       </c>
@@ -15770,7 +15772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A696" t="s">
         <v>1376</v>
       </c>
@@ -15788,7 +15790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A697" t="s">
         <v>1378</v>
       </c>
@@ -15806,7 +15808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A698" t="s">
         <v>1380</v>
       </c>
@@ -15821,7 +15823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A699" t="s">
         <v>1382</v>
       </c>
@@ -15836,7 +15838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A700" t="s">
         <v>1384</v>
       </c>
@@ -15851,7 +15853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A701" t="s">
         <v>1386</v>
       </c>
@@ -15866,7 +15868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A702" t="s">
         <v>1388</v>
       </c>
@@ -15881,7 +15883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A703" t="s">
         <v>1390</v>
       </c>
@@ -15896,7 +15898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A704" t="s">
         <v>1392</v>
       </c>
@@ -15911,7 +15913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A705" t="s">
         <v>1394</v>
       </c>
@@ -15926,7 +15928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A706" t="s">
         <v>1396</v>
       </c>
@@ -15941,7 +15943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A707" t="s">
         <v>1398</v>
       </c>
@@ -15956,7 +15958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A708" t="s">
         <v>1400</v>
       </c>
@@ -15971,7 +15973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A709" t="s">
         <v>1402</v>
       </c>
@@ -15986,7 +15988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A710" t="s">
         <v>1404</v>
       </c>
@@ -16001,7 +16003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A711" t="s">
         <v>1406</v>
       </c>
@@ -16016,7 +16018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A712" t="s">
         <v>1408</v>
       </c>
@@ -16031,7 +16033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A713" t="s">
         <v>1410</v>
       </c>
@@ -16046,7 +16048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A714" t="s">
         <v>1412</v>
       </c>
@@ -16061,7 +16063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A715" t="s">
         <v>1414</v>
       </c>
@@ -16076,7 +16078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A716" t="s">
         <v>1416</v>
       </c>
@@ -16091,7 +16093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A717" t="s">
         <v>1418</v>
       </c>
@@ -16109,7 +16111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A718" t="s">
         <v>1420</v>
       </c>
@@ -16124,7 +16126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A719" t="s">
         <v>1422</v>
       </c>
@@ -16139,7 +16141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A720" t="s">
         <v>1424</v>
       </c>
@@ -16157,7 +16159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A721" t="s">
         <v>1426</v>
       </c>
@@ -16172,7 +16174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A722" t="s">
         <v>1428</v>
       </c>
@@ -16190,7 +16192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A723" t="s">
         <v>1430</v>
       </c>
@@ -16205,7 +16207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A724" t="s">
         <v>1431</v>
       </c>
@@ -16220,7 +16222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A725" t="s">
         <v>1433</v>
       </c>
@@ -16235,7 +16237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A726" t="s">
         <v>1435</v>
       </c>
@@ -16250,7 +16252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A727" t="s">
         <v>1437</v>
       </c>
@@ -16265,7 +16267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A728" t="s">
         <v>1438</v>
       </c>
@@ -16280,7 +16282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A729" t="s">
         <v>1439</v>
       </c>
@@ -16295,7 +16297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A730" t="s">
         <v>1440</v>
       </c>
@@ -16310,7 +16312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A731" t="s">
         <v>1441</v>
       </c>
@@ -16325,7 +16327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A732" t="s">
         <v>1443</v>
       </c>
@@ -16340,7 +16342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A733" t="s">
         <v>1444</v>
       </c>
@@ -16355,7 +16357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A734" t="s">
         <v>1445</v>
       </c>
@@ -16370,7 +16372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A735" t="s">
         <v>1447</v>
       </c>
@@ -16385,7 +16387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="736" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A736" t="s">
         <v>1449</v>
       </c>
@@ -16400,7 +16402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A737" t="s">
         <v>1451</v>
       </c>
@@ -16415,7 +16417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A738" t="s">
         <v>1453</v>
       </c>
@@ -16430,7 +16432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A739" t="s">
         <v>1455</v>
       </c>
@@ -16445,7 +16447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A740" t="s">
         <v>1457</v>
       </c>
@@ -16460,7 +16462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A741" t="s">
         <v>1459</v>
       </c>
@@ -16475,7 +16477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A742" t="s">
         <v>1461</v>
       </c>
@@ -16490,7 +16492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A743" t="s">
         <v>1463</v>
       </c>
@@ -16508,7 +16510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A744" t="s">
         <v>1465</v>
       </c>
@@ -16523,7 +16525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A745" t="s">
         <v>1467</v>
       </c>
@@ -16538,7 +16540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A746" t="s">
         <v>1469</v>
       </c>
@@ -16553,7 +16555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A747" t="s">
         <v>1471</v>
       </c>
@@ -16568,7 +16570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A748" t="s">
         <v>1473</v>
       </c>
@@ -16583,7 +16585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A749" t="s">
         <v>1475</v>
       </c>
@@ -16598,7 +16600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A750" t="s">
         <v>1477</v>
       </c>
@@ -16613,7 +16615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A751" t="s">
         <v>1479</v>
       </c>
@@ -16628,7 +16630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A752" t="s">
         <v>1481</v>
       </c>
@@ -16643,7 +16645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A753" t="s">
         <v>1483</v>
       </c>
@@ -16658,7 +16660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A754" t="s">
         <v>1485</v>
       </c>
@@ -16673,7 +16675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A755" t="s">
         <v>1487</v>
       </c>
@@ -16688,7 +16690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A756" t="s">
         <v>1489</v>
       </c>
@@ -16703,7 +16705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A757" t="s">
         <v>1491</v>
       </c>
@@ -16718,7 +16720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A758" t="s">
         <v>1493</v>
       </c>
@@ -16733,7 +16735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A759" t="s">
         <v>1495</v>
       </c>
@@ -16748,7 +16750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A760" t="s">
         <v>1497</v>
       </c>
@@ -16763,7 +16765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A761" t="s">
         <v>1499</v>
       </c>
@@ -16778,7 +16780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A762" t="s">
         <v>1501</v>
       </c>
@@ -16793,7 +16795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A763" t="s">
         <v>1503</v>
       </c>
@@ -16808,7 +16810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="764" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A764" t="s">
         <v>1505</v>
       </c>
@@ -16823,7 +16825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A765" t="s">
         <v>1507</v>
       </c>
@@ -16838,7 +16840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A766" t="s">
         <v>1509</v>
       </c>
@@ -16853,7 +16855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A767" t="s">
         <v>1511</v>
       </c>
@@ -16871,7 +16873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A768" t="s">
         <v>1513</v>
       </c>
@@ -16889,7 +16891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A769" t="s">
         <v>1515</v>
       </c>
@@ -16904,7 +16906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A770" t="s">
         <v>1517</v>
       </c>
@@ -16919,7 +16921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A771" t="s">
         <v>1519</v>
       </c>
@@ -16934,7 +16936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="772" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A772" t="s">
         <v>1521</v>
       </c>
@@ -16949,7 +16951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A773" t="s">
         <v>1523</v>
       </c>
@@ -16964,7 +16966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A774" t="s">
         <v>1525</v>
       </c>
@@ -16979,7 +16981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A775" t="s">
         <v>1527</v>
       </c>
@@ -16997,7 +16999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A776" t="s">
         <v>1529</v>
       </c>
@@ -17016,16 +17018,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E776" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E776" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Dataset/15/나의 해방일지_학습 (15)/해방일지5.xlsx
+++ b/Dataset/15/나의 해방일지_학습 (15)/해방일지5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doohk\Desktop\GIST\4학년 1학기\AI 프로젝트\AI\Dataset\15\나의 해방일지_학습 (15)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD13999-5E55-48C1-9C20-BEC4D6ED975E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B74EC3C-15F7-4A4F-AE65-D29ABABCFAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4491" yWindow="4491" windowWidth="24686" windowHeight="13055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4720,7 +4720,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -5028,7 +5028,7 @@
   <dimension ref="A1:F776"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -5071,7 +5071,6 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <f>IF(ISBLANK(F2),D2,F2)</f>
         <v>0</v>
       </c>
     </row>
@@ -5090,7 +5089,6 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E66" si="1">IF(ISBLANK(F3),D3,F3)</f>
         <v>0</v>
       </c>
     </row>
@@ -5109,7 +5107,6 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5128,7 +5125,6 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F5">
@@ -5150,7 +5146,6 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5169,7 +5164,6 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5188,7 +5182,6 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5207,7 +5200,6 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F9">
@@ -5229,7 +5221,6 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5248,7 +5239,6 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5267,7 +5257,6 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -5286,7 +5275,6 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -5305,7 +5293,6 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5324,7 +5311,6 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5343,7 +5329,6 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5362,7 +5347,6 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5381,7 +5365,6 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5400,7 +5383,6 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5419,7 +5401,6 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F20">
@@ -5441,7 +5422,6 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5460,7 +5440,6 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5479,7 +5458,6 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F23">
@@ -5501,7 +5479,6 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5520,7 +5497,6 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5539,7 +5515,6 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5558,7 +5533,6 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5577,7 +5551,6 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5596,7 +5569,6 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F29">
@@ -5618,7 +5590,6 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5637,7 +5608,6 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5656,7 +5626,6 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5675,7 +5644,6 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F33">
@@ -5697,7 +5665,6 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -5716,7 +5683,6 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5735,7 +5701,6 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5754,7 +5719,6 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5773,7 +5737,6 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5792,7 +5755,6 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5811,7 +5773,6 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5830,7 +5791,6 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5849,7 +5809,6 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F42">
@@ -5871,7 +5830,6 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5890,7 +5848,6 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5909,7 +5866,6 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5928,7 +5884,6 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5947,7 +5902,6 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5966,7 +5920,6 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5985,7 +5938,6 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6004,7 +5956,6 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6023,7 +5974,6 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6042,7 +5992,6 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6061,7 +6010,6 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F53">
@@ -6083,7 +6031,6 @@
         <v>1</v>
       </c>
       <c r="E54">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F54">
@@ -6105,7 +6052,6 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6124,7 +6070,6 @@
         <v>1</v>
       </c>
       <c r="E56">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F56">
@@ -6146,7 +6091,6 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6165,7 +6109,6 @@
         <v>1</v>
       </c>
       <c r="E58">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F58">
@@ -6187,7 +6130,6 @@
         <v>1</v>
       </c>
       <c r="E59">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6206,7 +6148,6 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6225,7 +6166,6 @@
         <v>1</v>
       </c>
       <c r="E61">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6244,7 +6184,6 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6263,7 +6202,6 @@
         <v>1</v>
       </c>
       <c r="E63">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F63">
@@ -6285,7 +6223,6 @@
         <v>1</v>
       </c>
       <c r="E64">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6304,7 +6241,6 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6323,7 +6259,6 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -6338,11 +6273,10 @@
         <v>1.3710662722587591E-2</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D130" si="2">IF(C67&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D67:D130" si="1">IF(C67&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E130" si="3">IF(ISBLANK(F67),D67,F67)</f>
         <v>0</v>
       </c>
     </row>
@@ -6357,11 +6291,10 @@
         <v>0.9086003303527832</v>
       </c>
       <c r="D68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E68">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6376,11 +6309,10 @@
         <v>2.3810345679521561E-2</v>
       </c>
       <c r="D69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E69">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6395,11 +6327,10 @@
         <v>1.394351664930582E-2</v>
       </c>
       <c r="D70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E70">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6414,11 +6345,10 @@
         <v>1.4973464421927931E-2</v>
       </c>
       <c r="D71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E71">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6433,11 +6363,10 @@
         <v>4.4116593897342682E-2</v>
       </c>
       <c r="D72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E72">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6452,11 +6381,10 @@
         <v>1.4158503152430059E-2</v>
       </c>
       <c r="D73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E73">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6471,11 +6399,10 @@
         <v>0.1030322313308716</v>
       </c>
       <c r="D74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E74">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6490,11 +6417,10 @@
         <v>1.812056265771389E-2</v>
       </c>
       <c r="D75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E75">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6509,11 +6435,10 @@
         <v>1.5969302505254749E-2</v>
       </c>
       <c r="D76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E76">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6528,11 +6453,10 @@
         <v>0.98512911796569824</v>
       </c>
       <c r="D77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E77">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F77">
@@ -6550,11 +6474,10 @@
         <v>0.21745142340660101</v>
       </c>
       <c r="D78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E78">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6569,11 +6492,10 @@
         <v>0.98548173904418945</v>
       </c>
       <c r="D79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E79">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6588,11 +6510,10 @@
         <v>1.388537976890802E-2</v>
       </c>
       <c r="D80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E80">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6607,11 +6528,10 @@
         <v>1.4422839507460591E-2</v>
       </c>
       <c r="D81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E81">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6626,11 +6546,10 @@
         <v>1.3989675790071489E-2</v>
       </c>
       <c r="D82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E82">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6645,11 +6564,10 @@
         <v>2.6160616427659988E-2</v>
       </c>
       <c r="D83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E83">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6664,11 +6582,10 @@
         <v>0.98548001050949097</v>
       </c>
       <c r="D84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E84">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6683,11 +6600,10 @@
         <v>1.4178230427205561E-2</v>
       </c>
       <c r="D85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E85">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6702,11 +6618,10 @@
         <v>0.70530480146408081</v>
       </c>
       <c r="D86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E86">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6721,11 +6636,10 @@
         <v>0.9854692816734314</v>
       </c>
       <c r="D87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E87">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6740,11 +6654,10 @@
         <v>2.53862664103508E-2</v>
       </c>
       <c r="D88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E88">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6759,11 +6672,10 @@
         <v>0.98203355073928833</v>
       </c>
       <c r="D89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E89">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6778,11 +6690,10 @@
         <v>0.98534125089645386</v>
       </c>
       <c r="D90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E90">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6797,11 +6708,10 @@
         <v>0.21770775318145749</v>
       </c>
       <c r="D91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E91">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6816,11 +6726,10 @@
         <v>1.4770363457500929E-2</v>
       </c>
       <c r="D92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E92">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6835,11 +6744,10 @@
         <v>1.3724443502724171E-2</v>
       </c>
       <c r="D93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E93">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6854,11 +6762,10 @@
         <v>1.440343447029591E-2</v>
       </c>
       <c r="D94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E94">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6873,11 +6780,10 @@
         <v>1.396340224891901E-2</v>
       </c>
       <c r="D95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E95">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6892,11 +6798,10 @@
         <v>0.98544865846633911</v>
       </c>
       <c r="D96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E96">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F96">
@@ -6914,11 +6819,10 @@
         <v>1.4570483006536961E-2</v>
       </c>
       <c r="D97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E97">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6933,11 +6837,10 @@
         <v>4.4707722961902618E-2</v>
       </c>
       <c r="D98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E98">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6952,11 +6855,10 @@
         <v>2.4856166914105419E-2</v>
       </c>
       <c r="D99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E99">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6971,11 +6873,10 @@
         <v>0.1011301428079605</v>
       </c>
       <c r="D100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E100">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6990,11 +6891,10 @@
         <v>1.3770293444395071E-2</v>
       </c>
       <c r="D101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E101">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7009,11 +6909,10 @@
         <v>1.411874312907457E-2</v>
       </c>
       <c r="D102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E102">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7028,11 +6927,10 @@
         <v>0.98547953367233276</v>
       </c>
       <c r="D103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E103">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7047,11 +6945,10 @@
         <v>1.448294334113598E-2</v>
       </c>
       <c r="D104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E104">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7066,11 +6963,10 @@
         <v>1.56630165874958E-2</v>
       </c>
       <c r="D105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E105">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7085,11 +6981,10 @@
         <v>0.98544561862945557</v>
       </c>
       <c r="D106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E106">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F106">
@@ -7107,11 +7002,10 @@
         <v>0.98511409759521484</v>
       </c>
       <c r="D107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E107">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F107">
@@ -7129,11 +7023,10 @@
         <v>1.513246912509203E-2</v>
       </c>
       <c r="D108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E108">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7148,11 +7041,10 @@
         <v>0.98547506332397461</v>
       </c>
       <c r="D109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E109">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7167,11 +7059,10 @@
         <v>0.1067788153886795</v>
       </c>
       <c r="D110">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E110">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7186,11 +7077,10 @@
         <v>0.98540776968002319</v>
       </c>
       <c r="D111">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E111">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F111">
@@ -7208,11 +7098,10 @@
         <v>1.369569171220064E-2</v>
       </c>
       <c r="D112">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E112">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7227,11 +7116,10 @@
         <v>0.98547840118408203</v>
       </c>
       <c r="D113">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E113">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7246,11 +7134,10 @@
         <v>1.37005876749754E-2</v>
       </c>
       <c r="D114">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E114">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7265,11 +7152,10 @@
         <v>0.98546719551086426</v>
       </c>
       <c r="D115">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E115">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F115">
@@ -7287,11 +7173,10 @@
         <v>1.507068239152431E-2</v>
       </c>
       <c r="D116">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E116">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7306,11 +7191,10 @@
         <v>0.725544273853302</v>
       </c>
       <c r="D117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E117">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F117">
@@ -7328,11 +7212,10 @@
         <v>1.4434856362640859E-2</v>
       </c>
       <c r="D118">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E118">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7347,11 +7230,10 @@
         <v>4.6193487942218781E-2</v>
       </c>
       <c r="D119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E119">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7366,11 +7248,10 @@
         <v>0.98547804355621338</v>
       </c>
       <c r="D120">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E120">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7385,11 +7266,10 @@
         <v>0.98547542095184326</v>
       </c>
       <c r="D121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E121">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F121">
@@ -7407,11 +7287,10 @@
         <v>1.4240399934351441E-2</v>
       </c>
       <c r="D122">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E122">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7426,11 +7305,10 @@
         <v>1.3926698826253411E-2</v>
       </c>
       <c r="D123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E123">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7445,11 +7323,10 @@
         <v>1.723035424947739E-2</v>
       </c>
       <c r="D124">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E124">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7464,11 +7341,10 @@
         <v>1.368382014334202E-2</v>
       </c>
       <c r="D125">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E125">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7483,11 +7359,10 @@
         <v>0.93080592155456543</v>
       </c>
       <c r="D126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E126">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F126">
@@ -7505,11 +7380,10 @@
         <v>1.386033743619919E-2</v>
       </c>
       <c r="D127">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E127">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7524,11 +7398,10 @@
         <v>1.457965932786465E-2</v>
       </c>
       <c r="D128">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E128">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7543,11 +7416,10 @@
         <v>1.428309548646212E-2</v>
       </c>
       <c r="D129">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E129">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7562,11 +7434,10 @@
         <v>1.3597613200545309E-2</v>
       </c>
       <c r="D130">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E130">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7581,11 +7452,10 @@
         <v>0.98547643423080444</v>
       </c>
       <c r="D131">
-        <f t="shared" ref="D131:D194" si="4">IF(C131&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D131:D194" si="2">IF(C131&gt;0.5, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="E131">
-        <f t="shared" ref="E131:E194" si="5">IF(ISBLANK(F131),D131,F131)</f>
         <v>1</v>
       </c>
     </row>
@@ -7600,11 +7470,10 @@
         <v>2.1618125960230831E-2</v>
       </c>
       <c r="D132">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E132">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7619,11 +7488,10 @@
         <v>4.8758726567029953E-2</v>
       </c>
       <c r="D133">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E133">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7638,11 +7506,10 @@
         <v>1.3821202330291269E-2</v>
       </c>
       <c r="D134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E134">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7657,11 +7524,10 @@
         <v>0.98547887802124023</v>
       </c>
       <c r="D135">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E135">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F135">
@@ -7679,11 +7545,10 @@
         <v>1.401523128151894E-2</v>
       </c>
       <c r="D136">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E136">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7698,11 +7563,10 @@
         <v>1.373071875423193E-2</v>
       </c>
       <c r="D137">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E137">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7717,11 +7581,10 @@
         <v>2.8945151716470718E-2</v>
       </c>
       <c r="D138">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E138">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7736,11 +7599,10 @@
         <v>7.011152058839798E-2</v>
       </c>
       <c r="D139">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E139">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7755,11 +7617,10 @@
         <v>0.98136687278747559</v>
       </c>
       <c r="D140">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E140">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F140">
@@ -7777,11 +7638,10 @@
         <v>3.5514544695615768E-2</v>
       </c>
       <c r="D141">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E141">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7796,11 +7656,10 @@
         <v>0.98120349645614624</v>
       </c>
       <c r="D142">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E142">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F142">
@@ -7818,11 +7677,10 @@
         <v>1.4318901114165779E-2</v>
       </c>
       <c r="D143">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E143">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7837,11 +7695,10 @@
         <v>0.96894562244415283</v>
       </c>
       <c r="D144">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E144">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F144">
@@ -7859,11 +7716,10 @@
         <v>1.3687333092093469E-2</v>
       </c>
       <c r="D145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E145">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7878,11 +7734,10 @@
         <v>1.5142920427024359E-2</v>
       </c>
       <c r="D146">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E146">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7897,11 +7752,10 @@
         <v>1.380883250385523E-2</v>
       </c>
       <c r="D147">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E147">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7916,11 +7770,10 @@
         <v>0.98249673843383789</v>
       </c>
       <c r="D148">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E148">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F148">
@@ -7938,11 +7791,10 @@
         <v>1.3818003237247471E-2</v>
       </c>
       <c r="D149">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E149">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7957,11 +7809,10 @@
         <v>1.3797466643154619E-2</v>
       </c>
       <c r="D150">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E150">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7976,11 +7827,10 @@
         <v>1.3907975517213339E-2</v>
       </c>
       <c r="D151">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E151">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7995,11 +7845,10 @@
         <v>0.98535722494125366</v>
       </c>
       <c r="D152">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E152">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F152">
@@ -8017,11 +7866,10 @@
         <v>0.98539692163467407</v>
       </c>
       <c r="D153">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E153">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F153">
@@ -8039,11 +7887,10 @@
         <v>0.98534399271011353</v>
       </c>
       <c r="D154">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E154">
-        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -8058,11 +7905,10 @@
         <v>0.2175970375537872</v>
       </c>
       <c r="D155">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E155">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8077,11 +7923,10 @@
         <v>0.98544138669967651</v>
       </c>
       <c r="D156">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E156">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F156">
@@ -8099,11 +7944,10 @@
         <v>1.386149134486914E-2</v>
       </c>
       <c r="D157">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E157">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8118,11 +7962,10 @@
         <v>2.3491440340876579E-2</v>
       </c>
       <c r="D158">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E158">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8137,11 +7980,10 @@
         <v>1.386149134486914E-2</v>
       </c>
       <c r="D159">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E159">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8156,11 +7998,10 @@
         <v>2.3491440340876579E-2</v>
       </c>
       <c r="D160">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E160">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8175,11 +8016,10 @@
         <v>2.5032224133610729E-2</v>
       </c>
       <c r="D161">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E161">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8194,11 +8034,10 @@
         <v>1.434426195919514E-2</v>
       </c>
       <c r="D162">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E162">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8213,11 +8052,10 @@
         <v>7.1176953613758087E-2</v>
       </c>
       <c r="D163">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E163">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8232,11 +8070,10 @@
         <v>2.2667801007628441E-2</v>
       </c>
       <c r="D164">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E164">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8251,11 +8088,10 @@
         <v>0.96053153276443481</v>
       </c>
       <c r="D165">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E165">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F165">
@@ -8273,11 +8109,10 @@
         <v>1.3883525505661959E-2</v>
       </c>
       <c r="D166">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E166">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8292,11 +8127,10 @@
         <v>1.8314620479941372E-2</v>
       </c>
       <c r="D167">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E167">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8311,11 +8145,10 @@
         <v>1.6584994271397591E-2</v>
       </c>
       <c r="D168">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E168">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8330,11 +8163,10 @@
         <v>0.98467534780502319</v>
       </c>
       <c r="D169">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E169">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F169">
@@ -8352,11 +8184,10 @@
         <v>2.0071431994438171E-2</v>
       </c>
       <c r="D170">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E170">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8371,11 +8202,10 @@
         <v>1.3942409306764599E-2</v>
       </c>
       <c r="D171">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E171">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8390,11 +8220,10 @@
         <v>1.6715908423066139E-2</v>
       </c>
       <c r="D172">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E172">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8409,11 +8238,10 @@
         <v>1.5141767449676991E-2</v>
       </c>
       <c r="D173">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E173">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8428,11 +8256,10 @@
         <v>1.695315912365913E-2</v>
       </c>
       <c r="D174">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E174">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8447,11 +8274,10 @@
         <v>3.4780986607074738E-2</v>
       </c>
       <c r="D175">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E175">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8466,11 +8292,10 @@
         <v>2.8029985725879669E-2</v>
       </c>
       <c r="D176">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E176">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8485,11 +8310,10 @@
         <v>7.5473949313163757E-2</v>
       </c>
       <c r="D177">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E177">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8504,11 +8328,10 @@
         <v>2.0103152841329571E-2</v>
       </c>
       <c r="D178">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E178">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8523,11 +8346,10 @@
         <v>2.1493438631296161E-2</v>
       </c>
       <c r="D179">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E179">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8542,11 +8364,10 @@
         <v>1.399791985750198E-2</v>
       </c>
       <c r="D180">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E180">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8561,11 +8382,10 @@
         <v>1.4157824218273159E-2</v>
       </c>
       <c r="D181">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E181">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8580,11 +8400,10 @@
         <v>0.73680031299591064</v>
       </c>
       <c r="D182">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E182">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F182">
@@ -8602,11 +8421,10 @@
         <v>0.98545700311660767</v>
       </c>
       <c r="D183">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E183">
-        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -8621,11 +8439,10 @@
         <v>1.424674782902002E-2</v>
       </c>
       <c r="D184">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E184">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8640,11 +8457,10 @@
         <v>1.566671580076218E-2</v>
       </c>
       <c r="D185">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E185">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8659,11 +8475,10 @@
         <v>1.442270539700985E-2</v>
       </c>
       <c r="D186">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E186">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8678,11 +8493,10 @@
         <v>0.98520052433013916</v>
       </c>
       <c r="D187">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E187">
-        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -8697,11 +8511,10 @@
         <v>0.81515717506408691</v>
       </c>
       <c r="D188">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E188">
-        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -8716,11 +8529,10 @@
         <v>1.402060315012932E-2</v>
       </c>
       <c r="D189">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E189">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8735,11 +8547,10 @@
         <v>1.4921845868229869E-2</v>
       </c>
       <c r="D190">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E190">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8754,11 +8565,10 @@
         <v>0.98426800966262817</v>
       </c>
       <c r="D191">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E191">
-        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -8773,11 +8583,10 @@
         <v>1.3639195822179319E-2</v>
       </c>
       <c r="D192">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E192">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8792,11 +8601,10 @@
         <v>0.98542559146881104</v>
       </c>
       <c r="D193">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E193">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F193">
@@ -8814,11 +8622,10 @@
         <v>1.5530535019934179E-2</v>
       </c>
       <c r="D194">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E194">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8833,11 +8640,10 @@
         <v>1.391233783215284E-2</v>
       </c>
       <c r="D195">
-        <f t="shared" ref="D195:D258" si="6">IF(C195&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D195:D258" si="3">IF(C195&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E195">
-        <f t="shared" ref="E195:E258" si="7">IF(ISBLANK(F195),D195,F195)</f>
         <v>0</v>
       </c>
     </row>
@@ -8852,11 +8658,10 @@
         <v>5.7821232825517647E-2</v>
       </c>
       <c r="D196">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E196">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8871,11 +8676,10 @@
         <v>1.369199436157942E-2</v>
       </c>
       <c r="D197">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E197">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8890,11 +8694,10 @@
         <v>1.3572340831160551E-2</v>
       </c>
       <c r="D198">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E198">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8909,11 +8712,10 @@
         <v>1.7470283433794979E-2</v>
       </c>
       <c r="D199">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E199">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8928,11 +8730,10 @@
         <v>1.53904827311635E-2</v>
       </c>
       <c r="D200">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E200">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8947,11 +8748,10 @@
         <v>0.98280900716781616</v>
       </c>
       <c r="D201">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E201">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F201">
@@ -8969,11 +8769,10 @@
         <v>0.2177639305591583</v>
       </c>
       <c r="D202">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E202">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8988,11 +8787,10 @@
         <v>0.98524540662765503</v>
       </c>
       <c r="D203">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E203">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -9007,11 +8805,10 @@
         <v>0.98467308282852173</v>
       </c>
       <c r="D204">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E204">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -9026,11 +8823,10 @@
         <v>0.92340558767318726</v>
       </c>
       <c r="D205">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E205">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F205">
@@ -9048,11 +8844,10 @@
         <v>0.98545306921005249</v>
       </c>
       <c r="D206">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E206">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F206">
@@ -9070,11 +8865,10 @@
         <v>2.4955658242106441E-2</v>
       </c>
       <c r="D207">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E207">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9089,11 +8883,10 @@
         <v>1.393531169742346E-2</v>
       </c>
       <c r="D208">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E208">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9108,11 +8901,10 @@
         <v>1.3589109294116501E-2</v>
       </c>
       <c r="D209">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E209">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9127,11 +8919,10 @@
         <v>0.98541843891143799</v>
       </c>
       <c r="D210">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E210">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -9146,11 +8937,10 @@
         <v>1.7059400677680969E-2</v>
       </c>
       <c r="D211">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E211">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9165,11 +8955,10 @@
         <v>0.84252762794494629</v>
       </c>
       <c r="D212">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E212">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -9184,11 +8973,10 @@
         <v>0.98543930053710938</v>
       </c>
       <c r="D213">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E213">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -9203,11 +8991,10 @@
         <v>0.97329425811767578</v>
       </c>
       <c r="D214">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E214">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F214">
@@ -9225,11 +9012,10 @@
         <v>1.4509879052639009E-2</v>
       </c>
       <c r="D215">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E215">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9244,11 +9030,10 @@
         <v>4.3821454048156738E-2</v>
       </c>
       <c r="D216">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E216">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9263,11 +9048,10 @@
         <v>1.5503480099141599E-2</v>
       </c>
       <c r="D217">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E217">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9282,11 +9066,10 @@
         <v>1.488913502544165E-2</v>
       </c>
       <c r="D218">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E218">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9301,11 +9084,10 @@
         <v>1.8090689554810521E-2</v>
       </c>
       <c r="D219">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E219">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9320,11 +9102,10 @@
         <v>2.070038765668869E-2</v>
       </c>
       <c r="D220">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E220">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9339,11 +9120,10 @@
         <v>1.371404249221087E-2</v>
       </c>
       <c r="D221">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E221">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9358,11 +9138,10 @@
         <v>0.59808963537216187</v>
       </c>
       <c r="D222">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E222">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F222">
@@ -9380,11 +9159,10 @@
         <v>0.98544353246688843</v>
       </c>
       <c r="D223">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E223">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -9399,11 +9177,10 @@
         <v>1.5346941538155081E-2</v>
       </c>
       <c r="D224">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E224">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9418,11 +9195,10 @@
         <v>8.3045110106468201E-2</v>
       </c>
       <c r="D225">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E225">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9437,11 +9213,10 @@
         <v>1.3793184421956539E-2</v>
       </c>
       <c r="D226">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E226">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9456,11 +9231,10 @@
         <v>0.98475837707519531</v>
       </c>
       <c r="D227">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E227">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -9475,11 +9249,10 @@
         <v>1.365611050277948E-2</v>
       </c>
       <c r="D228">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E228">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9494,11 +9267,10 @@
         <v>0.98543733358383179</v>
       </c>
       <c r="D229">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E229">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -9513,11 +9285,10 @@
         <v>0.95393741130828857</v>
       </c>
       <c r="D230">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E230">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F230">
@@ -9535,11 +9306,10 @@
         <v>0.98536622524261475</v>
       </c>
       <c r="D231">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E231">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F231">
@@ -9557,11 +9327,10 @@
         <v>1.35774677619338E-2</v>
       </c>
       <c r="D232">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E232">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9576,11 +9345,10 @@
         <v>0.98527640104293823</v>
       </c>
       <c r="D233">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E233">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F233">
@@ -9598,11 +9366,10 @@
         <v>1.512232329696417E-2</v>
       </c>
       <c r="D234">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E234">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9617,11 +9384,10 @@
         <v>4.8989914357662201E-2</v>
       </c>
       <c r="D235">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E235">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9636,11 +9402,10 @@
         <v>0.21756656467914581</v>
       </c>
       <c r="D236">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E236">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9655,11 +9420,10 @@
         <v>0.47709789872169489</v>
       </c>
       <c r="D237">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E237">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9674,11 +9438,10 @@
         <v>3.2309576869010932E-2</v>
       </c>
       <c r="D238">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E238">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9693,11 +9456,10 @@
         <v>1.368299592286348E-2</v>
       </c>
       <c r="D239">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E239">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9712,11 +9474,10 @@
         <v>3.51252481341362E-2</v>
       </c>
       <c r="D240">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E240">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9731,11 +9492,10 @@
         <v>4.7300819307565689E-2</v>
       </c>
       <c r="D241">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E241">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9750,11 +9510,10 @@
         <v>3.6902591586112983E-2</v>
       </c>
       <c r="D242">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E242">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9769,11 +9528,10 @@
         <v>3.5909295082092292E-2</v>
       </c>
       <c r="D243">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E243">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9788,11 +9546,10 @@
         <v>3.678213432431221E-2</v>
       </c>
       <c r="D244">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E244">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9807,11 +9564,10 @@
         <v>0.98539644479751587</v>
       </c>
       <c r="D245">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E245">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F245">
@@ -9829,11 +9585,10 @@
         <v>1.394714321941137E-2</v>
       </c>
       <c r="D246">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E246">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9848,11 +9603,10 @@
         <v>0.28520125150680542</v>
       </c>
       <c r="D247">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E247">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9867,11 +9621,10 @@
         <v>1.387947145849466E-2</v>
       </c>
       <c r="D248">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E248">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9886,11 +9639,10 @@
         <v>0.98546856641769409</v>
       </c>
       <c r="D249">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E249">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -9905,11 +9657,10 @@
         <v>0.93011009693145752</v>
       </c>
       <c r="D250">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E250">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F250">
@@ -9927,11 +9678,10 @@
         <v>1.379871275275946E-2</v>
       </c>
       <c r="D251">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E251">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9946,11 +9696,10 @@
         <v>1.379871275275946E-2</v>
       </c>
       <c r="D252">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E252">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9965,11 +9714,10 @@
         <v>1.383568905293941E-2</v>
       </c>
       <c r="D253">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E253">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -9984,11 +9732,10 @@
         <v>2.3491440340876579E-2</v>
       </c>
       <c r="D254">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E254">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -10003,11 +9750,10 @@
         <v>1.386149134486914E-2</v>
       </c>
       <c r="D255">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E255">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -10022,11 +9768,10 @@
         <v>2.3491440340876579E-2</v>
       </c>
       <c r="D256">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E256">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -10041,11 +9786,10 @@
         <v>1.3828286901116369E-2</v>
       </c>
       <c r="D257">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E257">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -10060,11 +9804,10 @@
         <v>1.446379721164703E-2</v>
       </c>
       <c r="D258">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E258">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -10079,11 +9822,10 @@
         <v>0.94261497259140015</v>
       </c>
       <c r="D259">
-        <f t="shared" ref="D259:D322" si="8">IF(C259&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D259:D322" si="4">IF(C259&gt;0.5, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="E259">
-        <f t="shared" ref="E259:E322" si="9">IF(ISBLANK(F259),D259,F259)</f>
         <v>0</v>
       </c>
       <c r="F259">
@@ -10101,11 +9843,10 @@
         <v>1.3738514855504039E-2</v>
       </c>
       <c r="D260">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E260">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10120,11 +9861,10 @@
         <v>0.98547506332397461</v>
       </c>
       <c r="D261">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E261">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F261">
@@ -10142,11 +9882,10 @@
         <v>1.388523541390896E-2</v>
       </c>
       <c r="D262">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E262">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10161,11 +9900,10 @@
         <v>0.98546439409255981</v>
       </c>
       <c r="D263">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E263">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F263">
@@ -10183,11 +9921,10 @@
         <v>2.9252532869577411E-2</v>
       </c>
       <c r="D264">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E264">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10202,11 +9939,10 @@
         <v>1.3689598999917511E-2</v>
       </c>
       <c r="D265">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E265">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10221,11 +9957,10 @@
         <v>1.369129959493876E-2</v>
       </c>
       <c r="D266">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E266">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10240,11 +9975,10 @@
         <v>2.415976487100124E-2</v>
       </c>
       <c r="D267">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E267">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10259,11 +9993,10 @@
         <v>0.1395117789506912</v>
       </c>
       <c r="D268">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E268">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10278,11 +10011,10 @@
         <v>1.363246887922287E-2</v>
       </c>
       <c r="D269">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E269">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10297,11 +10029,10 @@
         <v>1.4140229672193531E-2</v>
       </c>
       <c r="D270">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E270">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10316,11 +10047,10 @@
         <v>0.2175704091787338</v>
       </c>
       <c r="D271">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E271">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10335,11 +10065,10 @@
         <v>1.652863435447216E-2</v>
       </c>
       <c r="D272">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E272">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10354,11 +10083,10 @@
         <v>0.98263609409332275</v>
       </c>
       <c r="D273">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E273">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F273">
@@ -10376,11 +10104,10 @@
         <v>1.884893886744976E-2</v>
       </c>
       <c r="D274">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E274">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10395,11 +10122,10 @@
         <v>1.3970561325550079E-2</v>
       </c>
       <c r="D275">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E275">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10414,11 +10140,10 @@
         <v>0.98547667264938354</v>
       </c>
       <c r="D276">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E276">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -10433,11 +10158,10 @@
         <v>1.489310711622238E-2</v>
       </c>
       <c r="D277">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E277">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10452,11 +10176,10 @@
         <v>1.6373202204704281E-2</v>
       </c>
       <c r="D278">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E278">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10471,11 +10194,10 @@
         <v>0.98381251096725464</v>
       </c>
       <c r="D279">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E279">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -10490,11 +10212,10 @@
         <v>1.4277974143624309E-2</v>
       </c>
       <c r="D280">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E280">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10509,11 +10230,10 @@
         <v>0.9854658842086792</v>
       </c>
       <c r="D281">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E281">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F281">
@@ -10531,11 +10251,10 @@
         <v>1.370650995522738E-2</v>
       </c>
       <c r="D282">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E282">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10550,11 +10269,10 @@
         <v>2.0464936271309849E-2</v>
       </c>
       <c r="D283">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E283">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10569,11 +10287,10 @@
         <v>2.6634525507688519E-2</v>
       </c>
       <c r="D284">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E284">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10588,11 +10305,10 @@
         <v>1.390269957482815E-2</v>
       </c>
       <c r="D285">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E285">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10607,11 +10323,10 @@
         <v>1.375721208751202E-2</v>
       </c>
       <c r="D286">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E286">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10626,11 +10341,10 @@
         <v>1.3865825720131401E-2</v>
       </c>
       <c r="D287">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E287">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10645,11 +10359,10 @@
         <v>0.90542882680892944</v>
       </c>
       <c r="D288">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E288">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F288">
@@ -10667,11 +10380,10 @@
         <v>1.389046665281057E-2</v>
       </c>
       <c r="D289">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E289">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10686,11 +10398,10 @@
         <v>0.98525881767272949</v>
       </c>
       <c r="D290">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E290">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F290">
@@ -10708,11 +10419,10 @@
         <v>5.0737049430608749E-2</v>
       </c>
       <c r="D291">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E291">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10727,11 +10437,10 @@
         <v>1.4780330471694469E-2</v>
       </c>
       <c r="D292">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E292">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10746,11 +10455,10 @@
         <v>1.386724691838026E-2</v>
       </c>
       <c r="D293">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E293">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10765,11 +10473,10 @@
         <v>1.37785142287612E-2</v>
       </c>
       <c r="D294">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E294">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10784,11 +10491,10 @@
         <v>1.4125089161098E-2</v>
       </c>
       <c r="D295">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E295">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10803,11 +10509,10 @@
         <v>1.370650995522738E-2</v>
       </c>
       <c r="D296">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E296">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10822,11 +10527,10 @@
         <v>0.97760993242263794</v>
       </c>
       <c r="D297">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E297">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -10841,11 +10545,10 @@
         <v>1.4599533751606939E-2</v>
       </c>
       <c r="D298">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E298">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10860,11 +10563,10 @@
         <v>1.36713208630681E-2</v>
       </c>
       <c r="D299">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E299">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10879,11 +10581,10 @@
         <v>1.3695537112653261E-2</v>
       </c>
       <c r="D300">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E300">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10898,11 +10599,10 @@
         <v>1.387392543256283E-2</v>
       </c>
       <c r="D301">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E301">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10917,11 +10617,10 @@
         <v>1.3763372786343099E-2</v>
       </c>
       <c r="D302">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E302">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10936,11 +10635,10 @@
         <v>1.359419710934162E-2</v>
       </c>
       <c r="D303">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E303">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10955,11 +10653,10 @@
         <v>1.3906544074416161E-2</v>
       </c>
       <c r="D304">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E304">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10974,11 +10671,10 @@
         <v>1.359363459050655E-2</v>
       </c>
       <c r="D305">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E305">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10993,11 +10689,10 @@
         <v>2.3638045415282249E-2</v>
       </c>
       <c r="D306">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E306">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11012,11 +10707,10 @@
         <v>1.3650490902364251E-2</v>
       </c>
       <c r="D307">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E307">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11031,11 +10725,10 @@
         <v>1.3721532188355919E-2</v>
       </c>
       <c r="D308">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E308">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11050,11 +10743,10 @@
         <v>1.522920746356249E-2</v>
       </c>
       <c r="D309">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E309">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11069,11 +10761,10 @@
         <v>1.429050229489803E-2</v>
       </c>
       <c r="D310">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E310">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11088,11 +10779,10 @@
         <v>1.6460036858916279E-2</v>
       </c>
       <c r="D311">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E311">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11107,11 +10797,10 @@
         <v>1.379391178488731E-2</v>
       </c>
       <c r="D312">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E312">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11126,11 +10815,10 @@
         <v>1.7517499625682831E-2</v>
       </c>
       <c r="D313">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E313">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11145,11 +10833,10 @@
         <v>4.345819354057312E-2</v>
       </c>
       <c r="D314">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E314">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11164,11 +10851,10 @@
         <v>1.363140344619751E-2</v>
       </c>
       <c r="D315">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E315">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11183,11 +10869,10 @@
         <v>1.387162320315838E-2</v>
       </c>
       <c r="D316">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E316">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11202,11 +10887,10 @@
         <v>1.38615295290947E-2</v>
       </c>
       <c r="D317">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E317">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11221,11 +10905,10 @@
         <v>1.36505039408803E-2</v>
       </c>
       <c r="D318">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E318">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11240,11 +10923,10 @@
         <v>1.398613676428795E-2</v>
       </c>
       <c r="D319">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E319">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11259,11 +10941,10 @@
         <v>2.9152881354093552E-2</v>
       </c>
       <c r="D320">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E320">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11278,11 +10959,10 @@
         <v>2.133481577038765E-2</v>
       </c>
       <c r="D321">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E321">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11297,11 +10977,10 @@
         <v>0.21770370006561279</v>
       </c>
       <c r="D322">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E322">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -11316,11 +10995,10 @@
         <v>1.408995315432549E-2</v>
       </c>
       <c r="D323">
-        <f t="shared" ref="D323:D386" si="10">IF(C323&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D323:D386" si="5">IF(C323&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E323">
-        <f t="shared" ref="E323:E386" si="11">IF(ISBLANK(F323),D323,F323)</f>
         <v>0</v>
       </c>
     </row>
@@ -11335,11 +11013,10 @@
         <v>1.3703024014830589E-2</v>
       </c>
       <c r="D324">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E324">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11354,11 +11031,10 @@
         <v>1.4244189485907549E-2</v>
       </c>
       <c r="D325">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E325">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11373,11 +11049,10 @@
         <v>1.5927692875266079E-2</v>
       </c>
       <c r="D326">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E326">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11392,11 +11067,10 @@
         <v>2.7320165187120441E-2</v>
       </c>
       <c r="D327">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E327">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11411,11 +11085,10 @@
         <v>1.382583659142256E-2</v>
       </c>
       <c r="D328">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E328">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11430,11 +11103,10 @@
         <v>1.3732952997088431E-2</v>
       </c>
       <c r="D329">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E329">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11449,11 +11121,10 @@
         <v>1.3947706669569021E-2</v>
       </c>
       <c r="D330">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E330">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11468,11 +11139,10 @@
         <v>0.90730613470077515</v>
       </c>
       <c r="D331">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E331">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F331">
@@ -11490,11 +11160,10 @@
         <v>1.405948866158724E-2</v>
       </c>
       <c r="D332">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E332">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11509,11 +11178,10 @@
         <v>1.405383832752705E-2</v>
       </c>
       <c r="D333">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E333">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11528,11 +11196,10 @@
         <v>0.97594326734542847</v>
       </c>
       <c r="D334">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E334">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F334">
@@ -11550,11 +11217,10 @@
         <v>1.379093341529369E-2</v>
       </c>
       <c r="D335">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E335">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11569,11 +11235,10 @@
         <v>1.7668928951025009E-2</v>
       </c>
       <c r="D336">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E336">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11588,11 +11253,10 @@
         <v>0.98526239395141602</v>
       </c>
       <c r="D337">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E337">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F337">
@@ -11610,11 +11274,10 @@
         <v>1.37872900813818E-2</v>
       </c>
       <c r="D338">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E338">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11629,11 +11292,10 @@
         <v>5.5926881730556488E-2</v>
       </c>
       <c r="D339">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E339">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11648,11 +11310,10 @@
         <v>1.427121739834547E-2</v>
       </c>
       <c r="D340">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E340">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11667,11 +11328,10 @@
         <v>0.98416233062744141</v>
       </c>
       <c r="D341">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E341">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F341">
@@ -11689,11 +11349,10 @@
         <v>0.98530083894729614</v>
       </c>
       <c r="D342">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E342">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F342">
@@ -11711,11 +11370,10 @@
         <v>1.505509577691555E-2</v>
       </c>
       <c r="D343">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E343">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11730,11 +11388,10 @@
         <v>1.400375831872225E-2</v>
       </c>
       <c r="D344">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E344">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11749,11 +11406,10 @@
         <v>1.3805339112877849E-2</v>
       </c>
       <c r="D345">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E345">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11768,11 +11424,10 @@
         <v>1.4040880836546419E-2</v>
       </c>
       <c r="D346">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E346">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11787,11 +11442,10 @@
         <v>1.373931579291821E-2</v>
       </c>
       <c r="D347">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E347">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11806,11 +11460,10 @@
         <v>0.9854772686958313</v>
       </c>
       <c r="D348">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E348">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -11825,11 +11478,10 @@
         <v>1.500699203461409E-2</v>
       </c>
       <c r="D349">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E349">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11844,11 +11496,10 @@
         <v>1.6247769817709919E-2</v>
       </c>
       <c r="D350">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E350">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11863,11 +11514,10 @@
         <v>1.427077502012253E-2</v>
       </c>
       <c r="D351">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E351">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11882,11 +11532,10 @@
         <v>0.76912790536880493</v>
       </c>
       <c r="D352">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E352">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F352">
@@ -11904,11 +11553,10 @@
         <v>2.873598225414753E-2</v>
       </c>
       <c r="D353">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E353">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11923,11 +11571,10 @@
         <v>1.6971811652183529E-2</v>
       </c>
       <c r="D354">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E354">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11942,11 +11589,10 @@
         <v>0.95122706890106201</v>
       </c>
       <c r="D355">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E355">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F355">
@@ -11964,11 +11610,10 @@
         <v>1.3871036469936371E-2</v>
       </c>
       <c r="D356">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E356">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11983,11 +11628,10 @@
         <v>1.5091788023710251E-2</v>
       </c>
       <c r="D357">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E357">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12002,11 +11646,10 @@
         <v>0.98533153533935547</v>
       </c>
       <c r="D358">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E358">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F358">
@@ -12024,11 +11667,10 @@
         <v>1.3628974556922911E-2</v>
       </c>
       <c r="D359">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E359">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12043,11 +11685,10 @@
         <v>1.373016927391291E-2</v>
       </c>
       <c r="D360">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E360">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12062,11 +11703,10 @@
         <v>2.275764383375645E-2</v>
       </c>
       <c r="D361">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E361">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12081,11 +11721,10 @@
         <v>1.374897174537182E-2</v>
       </c>
       <c r="D362">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E362">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12100,11 +11739,10 @@
         <v>1.3806384056806561E-2</v>
       </c>
       <c r="D363">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E363">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12119,11 +11757,10 @@
         <v>0.21764817833900449</v>
       </c>
       <c r="D364">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E364">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12138,11 +11775,10 @@
         <v>1.381533965468407E-2</v>
       </c>
       <c r="D365">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E365">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12157,11 +11793,10 @@
         <v>2.7856349945068359E-2</v>
       </c>
       <c r="D366">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E366">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12176,11 +11811,10 @@
         <v>1.3830043375492099E-2</v>
       </c>
       <c r="D367">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E367">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12195,11 +11829,10 @@
         <v>0.1969122439622879</v>
       </c>
       <c r="D368">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E368">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12214,11 +11847,10 @@
         <v>1.382804661989212E-2</v>
       </c>
       <c r="D369">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E369">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12233,11 +11865,10 @@
         <v>1.3932140544056891E-2</v>
       </c>
       <c r="D370">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E370">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12252,11 +11883,10 @@
         <v>1.5234078280627729E-2</v>
       </c>
       <c r="D371">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E371">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12271,11 +11901,10 @@
         <v>0.98544543981552124</v>
       </c>
       <c r="D372">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E372">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -12290,11 +11919,10 @@
         <v>0.98465234041213989</v>
       </c>
       <c r="D373">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E373">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -12309,11 +11937,10 @@
         <v>0.98540699481964111</v>
       </c>
       <c r="D374">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E374">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -12328,11 +11955,10 @@
         <v>0.98545432090759277</v>
       </c>
       <c r="D375">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E375">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F375">
@@ -12350,11 +11976,10 @@
         <v>0.98210835456848145</v>
       </c>
       <c r="D376">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E376">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F376">
@@ -12372,11 +11997,10 @@
         <v>1.512878201901913E-2</v>
       </c>
       <c r="D377">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E377">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12391,11 +12015,10 @@
         <v>0.98416996002197266</v>
       </c>
       <c r="D378">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E378">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F378">
@@ -12413,11 +12036,10 @@
         <v>1.366845984011889E-2</v>
       </c>
       <c r="D379">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E379">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12432,11 +12054,10 @@
         <v>1.8207874149084091E-2</v>
       </c>
       <c r="D380">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E380">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12451,11 +12072,10 @@
         <v>1.458314713090658E-2</v>
       </c>
       <c r="D381">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E381">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12470,11 +12090,10 @@
         <v>1.390129327774048E-2</v>
       </c>
       <c r="D382">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E382">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12489,11 +12108,10 @@
         <v>1.427669264376163E-2</v>
       </c>
       <c r="D383">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E383">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12508,11 +12126,10 @@
         <v>2.7009552344679829E-2</v>
       </c>
       <c r="D384">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E384">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12527,11 +12144,10 @@
         <v>1.5729149803519249E-2</v>
       </c>
       <c r="D385">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E385">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12546,11 +12162,10 @@
         <v>1.367982383817434E-2</v>
       </c>
       <c r="D386">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E386">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12565,11 +12180,10 @@
         <v>1.418987195938826E-2</v>
       </c>
       <c r="D387">
-        <f t="shared" ref="D387:D450" si="12">IF(C387&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D387:D450" si="6">IF(C387&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E387">
-        <f t="shared" ref="E387:E450" si="13">IF(ISBLANK(F387),D387,F387)</f>
         <v>0</v>
       </c>
     </row>
@@ -12584,11 +12198,10 @@
         <v>1.3953170739114279E-2</v>
       </c>
       <c r="D388">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E388">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12603,11 +12216,10 @@
         <v>1.376821473240852E-2</v>
       </c>
       <c r="D389">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E389">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12622,11 +12234,10 @@
         <v>1.3673628680407999E-2</v>
       </c>
       <c r="D390">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E390">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12641,11 +12252,10 @@
         <v>1.3735354878008371E-2</v>
       </c>
       <c r="D391">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E391">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12660,11 +12270,10 @@
         <v>1.4524278230965139E-2</v>
       </c>
       <c r="D392">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E392">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12679,11 +12288,10 @@
         <v>0.98244571685791016</v>
       </c>
       <c r="D393">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E393">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F393">
@@ -12701,11 +12309,10 @@
         <v>4.164421558380127E-2</v>
       </c>
       <c r="D394">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E394">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12720,11 +12327,10 @@
         <v>3.0997958034276959E-2</v>
       </c>
       <c r="D395">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E395">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12739,11 +12345,10 @@
         <v>1.540964841842651E-2</v>
       </c>
       <c r="D396">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E396">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12758,11 +12363,10 @@
         <v>0.98456490039825439</v>
       </c>
       <c r="D397">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E397">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F397">
@@ -12780,11 +12384,10 @@
         <v>1.4686028473079199E-2</v>
       </c>
       <c r="D398">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E398">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12799,11 +12402,10 @@
         <v>5.9192456305027008E-2</v>
       </c>
       <c r="D399">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E399">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12818,11 +12420,10 @@
         <v>1.442217640578747E-2</v>
       </c>
       <c r="D400">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E400">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12837,11 +12438,10 @@
         <v>0.98508155345916748</v>
       </c>
       <c r="D401">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E401">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F401">
@@ -12859,11 +12459,10 @@
         <v>1.4160586521029471E-2</v>
       </c>
       <c r="D402">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E402">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12878,11 +12477,10 @@
         <v>1.645704917609692E-2</v>
       </c>
       <c r="D403">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E403">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -12897,11 +12495,10 @@
         <v>0.95106667280197144</v>
       </c>
       <c r="D404">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E404">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F404">
@@ -12919,11 +12516,10 @@
         <v>0.98248404264450073</v>
       </c>
       <c r="D405">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E405">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F405">
@@ -12941,11 +12537,10 @@
         <v>0.98547655344009399</v>
       </c>
       <c r="D406">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E406">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F406">
@@ -12963,11 +12558,10 @@
         <v>0.97771012783050537</v>
       </c>
       <c r="D407">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E407">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F407">
@@ -12985,11 +12579,10 @@
         <v>0.922019362449646</v>
       </c>
       <c r="D408">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E408">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F408">
@@ -13007,11 +12600,10 @@
         <v>1.4303578063845629E-2</v>
       </c>
       <c r="D409">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E409">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13026,11 +12618,10 @@
         <v>0.98547518253326416</v>
       </c>
       <c r="D410">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E410">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -13045,11 +12636,10 @@
         <v>1.5419593080878259E-2</v>
       </c>
       <c r="D411">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E411">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13064,11 +12654,10 @@
         <v>0.94682592153549194</v>
       </c>
       <c r="D412">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E412">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F412">
@@ -13086,11 +12675,10 @@
         <v>1.5097048133611681E-2</v>
       </c>
       <c r="D413">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E413">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13105,11 +12693,10 @@
         <v>1.3884616084396839E-2</v>
       </c>
       <c r="D414">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E414">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13124,11 +12711,10 @@
         <v>1.3802541419863701E-2</v>
       </c>
       <c r="D415">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E415">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13143,11 +12729,10 @@
         <v>1.5097048133611681E-2</v>
       </c>
       <c r="D416">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E416">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13162,11 +12747,10 @@
         <v>1.387127116322517E-2</v>
       </c>
       <c r="D417">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E417">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13181,11 +12765,10 @@
         <v>0.98522353172302246</v>
       </c>
       <c r="D418">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E418">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F418">
@@ -13203,11 +12786,10 @@
         <v>1.373337861150503E-2</v>
       </c>
       <c r="D419">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E419">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13222,11 +12804,10 @@
         <v>0.95697003602981567</v>
       </c>
       <c r="D420">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E420">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -13241,11 +12822,10 @@
         <v>1.3847834430634981E-2</v>
       </c>
       <c r="D421">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E421">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13260,11 +12840,10 @@
         <v>9.1355584561824799E-2</v>
       </c>
       <c r="D422">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E422">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13279,11 +12858,10 @@
         <v>1.3928151689469811E-2</v>
       </c>
       <c r="D423">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E423">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13298,11 +12876,10 @@
         <v>4.7108765691518777E-2</v>
       </c>
       <c r="D424">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E424">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13317,11 +12894,10 @@
         <v>1.487620174884796E-2</v>
       </c>
       <c r="D425">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E425">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13336,11 +12912,10 @@
         <v>2.5388471782207489E-2</v>
       </c>
       <c r="D426">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E426">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13355,11 +12930,10 @@
         <v>1.365266088396311E-2</v>
       </c>
       <c r="D427">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E427">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13374,11 +12948,10 @@
         <v>1.548564527183771E-2</v>
       </c>
       <c r="D428">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E428">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13393,11 +12966,10 @@
         <v>1.367973908782005E-2</v>
       </c>
       <c r="D429">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E429">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13412,11 +12984,10 @@
         <v>1.650630310177803E-2</v>
       </c>
       <c r="D430">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E430">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13431,11 +13002,10 @@
         <v>1.4003388583660129E-2</v>
       </c>
       <c r="D431">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E431">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13450,11 +13020,10 @@
         <v>0.98339831829071045</v>
       </c>
       <c r="D432">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E432">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F432">
@@ -13472,11 +13041,10 @@
         <v>0.75483047962188721</v>
       </c>
       <c r="D433">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E433">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F433">
@@ -13494,11 +13062,10 @@
         <v>1.9715238362550739E-2</v>
       </c>
       <c r="D434">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E434">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13513,11 +13080,10 @@
         <v>1.366658322513103E-2</v>
       </c>
       <c r="D435">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E435">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13532,11 +13098,10 @@
         <v>0.98529815673828125</v>
       </c>
       <c r="D436">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E436">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F436">
@@ -13554,11 +13119,10 @@
         <v>1.3692903332412239E-2</v>
       </c>
       <c r="D437">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E437">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13573,11 +13137,10 @@
         <v>0.96377032995223999</v>
       </c>
       <c r="D438">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E438">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F438">
@@ -13595,11 +13158,10 @@
         <v>2.2664308547973629E-2</v>
       </c>
       <c r="D439">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E439">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13614,11 +13176,10 @@
         <v>0.98451495170593262</v>
       </c>
       <c r="D440">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E440">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F440">
@@ -13636,11 +13197,10 @@
         <v>2.50205472111702E-2</v>
       </c>
       <c r="D441">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E441">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13655,11 +13215,10 @@
         <v>1.373603381216526E-2</v>
       </c>
       <c r="D442">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E442">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13674,11 +13233,10 @@
         <v>0.97403436899185181</v>
       </c>
       <c r="D443">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E443">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F443">
@@ -13696,11 +13254,10 @@
         <v>1.393222622573376E-2</v>
       </c>
       <c r="D444">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E444">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13715,11 +13272,10 @@
         <v>1.4976011589169501E-2</v>
       </c>
       <c r="D445">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E445">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13734,11 +13290,10 @@
         <v>2.6965249329805371E-2</v>
       </c>
       <c r="D446">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E446">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13753,11 +13308,10 @@
         <v>0.95541524887084961</v>
       </c>
       <c r="D447">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E447">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F447">
@@ -13775,11 +13329,10 @@
         <v>0.90316838026046753</v>
       </c>
       <c r="D448">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E448">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F448">
@@ -13797,11 +13350,10 @@
         <v>1.381427515298128E-2</v>
       </c>
       <c r="D449">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E449">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13816,11 +13368,10 @@
         <v>1.7941424623131749E-2</v>
       </c>
       <c r="D450">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E450">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -13835,11 +13386,10 @@
         <v>0.98524689674377441</v>
       </c>
       <c r="D451">
-        <f t="shared" ref="D451:D514" si="14">IF(C451&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D451:D514" si="7">IF(C451&gt;0.5, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="E451">
-        <f t="shared" ref="E451:E514" si="15">IF(ISBLANK(F451),D451,F451)</f>
         <v>0</v>
       </c>
       <c r="F451">
@@ -13857,11 +13407,10 @@
         <v>1.7832404002547261E-2</v>
       </c>
       <c r="D452">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E452">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13876,11 +13425,10 @@
         <v>1.4920639805495741E-2</v>
       </c>
       <c r="D453">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E453">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13895,11 +13443,10 @@
         <v>7.7514998614788055E-2</v>
       </c>
       <c r="D454">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E454">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13914,11 +13461,10 @@
         <v>1.380954682826996E-2</v>
       </c>
       <c r="D455">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E455">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13933,11 +13479,10 @@
         <v>2.9864091426134109E-2</v>
       </c>
       <c r="D456">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E456">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13952,11 +13497,10 @@
         <v>0.33106100559234619</v>
       </c>
       <c r="D457">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E457">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13971,11 +13515,10 @@
         <v>1.3815268874168399E-2</v>
       </c>
       <c r="D458">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E458">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -13990,11 +13533,10 @@
         <v>1.3597375713288781E-2</v>
       </c>
       <c r="D459">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E459">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14009,11 +13551,10 @@
         <v>1.359495148062706E-2</v>
       </c>
       <c r="D460">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E460">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14028,11 +13569,10 @@
         <v>1.401079818606377E-2</v>
       </c>
       <c r="D461">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E461">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14047,11 +13587,10 @@
         <v>1.9407832995057109E-2</v>
       </c>
       <c r="D462">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E462">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14066,11 +13605,10 @@
         <v>0.84246671199798584</v>
       </c>
       <c r="D463">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E463">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F463">
@@ -14088,11 +13626,10 @@
         <v>1.3793508522212511E-2</v>
       </c>
       <c r="D464">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E464">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14107,11 +13644,10 @@
         <v>0.98546314239501953</v>
       </c>
       <c r="D465">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E465">
-        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -14126,11 +13662,10 @@
         <v>1.375539414584637E-2</v>
       </c>
       <c r="D466">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E466">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14145,11 +13680,10 @@
         <v>1.506446953862906E-2</v>
       </c>
       <c r="D467">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E467">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14164,11 +13698,10 @@
         <v>2.5112202391028401E-2</v>
       </c>
       <c r="D468">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E468">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14183,11 +13716,10 @@
         <v>0.98540884256362915</v>
       </c>
       <c r="D469">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E469">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F469">
@@ -14205,11 +13737,10 @@
         <v>1.4139772392809389E-2</v>
       </c>
       <c r="D470">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E470">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14224,11 +13755,10 @@
         <v>3.5134837031364441E-2</v>
       </c>
       <c r="D471">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E471">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14243,11 +13773,10 @@
         <v>0.84207355976104736</v>
       </c>
       <c r="D472">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E472">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F472">
@@ -14265,11 +13794,10 @@
         <v>0.884743332862854</v>
       </c>
       <c r="D473">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E473">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F473">
@@ -14287,11 +13815,10 @@
         <v>1.3821949250996109E-2</v>
       </c>
       <c r="D474">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E474">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14306,11 +13833,10 @@
         <v>1.410701964050531E-2</v>
       </c>
       <c r="D475">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E475">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14325,11 +13851,10 @@
         <v>1.4044570736587049E-2</v>
       </c>
       <c r="D476">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E476">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14344,11 +13869,10 @@
         <v>0.93166577816009521</v>
       </c>
       <c r="D477">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E477">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F477">
@@ -14366,11 +13890,10 @@
         <v>1.4157877303659919E-2</v>
       </c>
       <c r="D478">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E478">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14385,11 +13908,10 @@
         <v>0.96756380796432495</v>
       </c>
       <c r="D479">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E479">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F479">
@@ -14407,11 +13929,10 @@
         <v>1.647988893091679E-2</v>
       </c>
       <c r="D480">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E480">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14426,11 +13947,10 @@
         <v>0.98490256071090698</v>
       </c>
       <c r="D481">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E481">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F481">
@@ -14448,11 +13968,10 @@
         <v>1.380748860538006E-2</v>
       </c>
       <c r="D482">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E482">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14467,11 +13986,10 @@
         <v>1.3901338912546629E-2</v>
       </c>
       <c r="D483">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E483">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14486,11 +14004,10 @@
         <v>0.88249003887176514</v>
       </c>
       <c r="D484">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E484">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F484">
@@ -14508,11 +14025,10 @@
         <v>1.416807621717453E-2</v>
       </c>
       <c r="D485">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E485">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14527,11 +14043,10 @@
         <v>1.395268552005291E-2</v>
       </c>
       <c r="D486">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E486">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14546,11 +14061,10 @@
         <v>1.3707658275961879E-2</v>
       </c>
       <c r="D487">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E487">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14565,11 +14079,10 @@
         <v>0.97734558582305908</v>
       </c>
       <c r="D488">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E488">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F488">
@@ -14587,11 +14100,10 @@
         <v>1.3835735619068149E-2</v>
       </c>
       <c r="D489">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E489">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14606,11 +14118,10 @@
         <v>1.7451254650950428E-2</v>
       </c>
       <c r="D490">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E490">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14625,11 +14136,10 @@
         <v>1.406613364815712E-2</v>
       </c>
       <c r="D491">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E491">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14644,11 +14154,10 @@
         <v>1.3675166293978689E-2</v>
       </c>
       <c r="D492">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E492">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14663,11 +14172,10 @@
         <v>2.3758856579661369E-2</v>
       </c>
       <c r="D493">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E493">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14682,11 +14190,10 @@
         <v>1.42554622143507E-2</v>
       </c>
       <c r="D494">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E494">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14701,11 +14208,10 @@
         <v>1.7056090757250789E-2</v>
       </c>
       <c r="D495">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E495">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14720,11 +14226,10 @@
         <v>1.570533029735088E-2</v>
       </c>
       <c r="D496">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E496">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14739,11 +14244,10 @@
         <v>1.9842445850372311E-2</v>
       </c>
       <c r="D497">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E497">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14758,11 +14262,10 @@
         <v>0.98547923564910889</v>
       </c>
       <c r="D498">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E498">
-        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -14777,11 +14280,10 @@
         <v>1.3677237555384639E-2</v>
       </c>
       <c r="D499">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E499">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14796,11 +14298,10 @@
         <v>1.882581785321236E-2</v>
       </c>
       <c r="D500">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E500">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14815,11 +14316,10 @@
         <v>2.275968715548515E-2</v>
       </c>
       <c r="D501">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E501">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14834,11 +14334,10 @@
         <v>0.96627151966094971</v>
       </c>
       <c r="D502">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E502">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F502">
@@ -14856,11 +14355,10 @@
         <v>1.4037963002920151E-2</v>
       </c>
       <c r="D503">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E503">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14875,11 +14373,10 @@
         <v>0.98547595739364624</v>
       </c>
       <c r="D504">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E504">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F504">
@@ -14897,11 +14394,10 @@
         <v>1.370448712259531E-2</v>
       </c>
       <c r="D505">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E505">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14916,11 +14412,10 @@
         <v>1.363953575491905E-2</v>
       </c>
       <c r="D506">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E506">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14935,11 +14430,10 @@
         <v>1.3705608434975151E-2</v>
       </c>
       <c r="D507">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E507">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14954,11 +14448,10 @@
         <v>2.099380828440189E-2</v>
       </c>
       <c r="D508">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E508">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14973,11 +14466,10 @@
         <v>2.7596194297075272E-2</v>
       </c>
       <c r="D509">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E509">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14992,11 +14484,10 @@
         <v>1.3597726821899411E-2</v>
       </c>
       <c r="D510">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E510">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -15011,11 +14502,10 @@
         <v>1.3639195822179319E-2</v>
       </c>
       <c r="D511">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E511">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -15030,11 +14520,10 @@
         <v>1.40819801017642E-2</v>
       </c>
       <c r="D512">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E512">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -15049,11 +14538,10 @@
         <v>1.3589709065854549E-2</v>
       </c>
       <c r="D513">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E513">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -15068,11 +14556,10 @@
         <v>1.360238436609507E-2</v>
       </c>
       <c r="D514">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E514">
-        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -15087,11 +14574,10 @@
         <v>3.5836555063724518E-2</v>
       </c>
       <c r="D515">
-        <f t="shared" ref="D515:D578" si="16">IF(C515&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D515:D578" si="8">IF(C515&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E515">
-        <f t="shared" ref="E515:E578" si="17">IF(ISBLANK(F515),D515,F515)</f>
         <v>0</v>
       </c>
     </row>
@@ -15106,11 +14592,10 @@
         <v>1.450130343437195E-2</v>
       </c>
       <c r="D516">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E516">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15125,11 +14610,10 @@
         <v>1.7600275576114651E-2</v>
       </c>
       <c r="D517">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E517">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15144,11 +14628,10 @@
         <v>1.426785159856081E-2</v>
       </c>
       <c r="D518">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E518">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15163,11 +14646,10 @@
         <v>1.69550497084856E-2</v>
       </c>
       <c r="D519">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E519">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15182,11 +14664,10 @@
         <v>1.362121943384409E-2</v>
       </c>
       <c r="D520">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E520">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15201,11 +14682,10 @@
         <v>0.8166007399559021</v>
       </c>
       <c r="D521">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E521">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F521">
@@ -15223,11 +14703,10 @@
         <v>0.28051385283470148</v>
       </c>
       <c r="D522">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E522">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15242,11 +14721,10 @@
         <v>1.41123328357935E-2</v>
       </c>
       <c r="D523">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E523">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15261,11 +14739,10 @@
         <v>1.3918298296630381E-2</v>
       </c>
       <c r="D524">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E524">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15280,11 +14757,10 @@
         <v>1.6749303787946701E-2</v>
       </c>
       <c r="D525">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E525">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15299,11 +14775,10 @@
         <v>1.3722223229706291E-2</v>
       </c>
       <c r="D526">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E526">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15318,11 +14793,10 @@
         <v>1.3661647215485569E-2</v>
       </c>
       <c r="D527">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E527">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15337,11 +14811,10 @@
         <v>1.54383908957243E-2</v>
       </c>
       <c r="D528">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E528">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15356,11 +14829,10 @@
         <v>1.376025378704071E-2</v>
       </c>
       <c r="D529">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E529">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15375,11 +14847,10 @@
         <v>1.3729271478950981E-2</v>
       </c>
       <c r="D530">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E530">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15394,11 +14865,10 @@
         <v>1.367398258298635E-2</v>
       </c>
       <c r="D531">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E531">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15413,11 +14883,10 @@
         <v>1.3655293732881549E-2</v>
       </c>
       <c r="D532">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E532">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15432,11 +14901,10 @@
         <v>1.504892483353615E-2</v>
       </c>
       <c r="D533">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E533">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15451,11 +14919,10 @@
         <v>0.98531091213226318</v>
       </c>
       <c r="D534">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E534">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F534">
@@ -15473,11 +14940,10 @@
         <v>1.3665842823684221E-2</v>
       </c>
       <c r="D535">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E535">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15492,11 +14958,10 @@
         <v>1.370724570006132E-2</v>
       </c>
       <c r="D536">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E536">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15511,11 +14976,10 @@
         <v>0.98547559976577759</v>
       </c>
       <c r="D537">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E537">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F537">
@@ -15533,11 +14997,10 @@
         <v>1.534511800855398E-2</v>
       </c>
       <c r="D538">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E538">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15552,11 +15015,10 @@
         <v>3.1979642808437347E-2</v>
       </c>
       <c r="D539">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E539">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15571,11 +15033,10 @@
         <v>1.3816796243190771E-2</v>
       </c>
       <c r="D540">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E540">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15590,11 +15051,10 @@
         <v>1.67597122490406E-2</v>
       </c>
       <c r="D541">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E541">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15609,11 +15069,10 @@
         <v>4.1806448251008987E-2</v>
       </c>
       <c r="D542">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E542">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15628,11 +15087,10 @@
         <v>1.5337289310991761E-2</v>
       </c>
       <c r="D543">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E543">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15647,11 +15105,10 @@
         <v>1.708961836993694E-2</v>
       </c>
       <c r="D544">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E544">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15666,11 +15123,10 @@
         <v>1.378568913787603E-2</v>
       </c>
       <c r="D545">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E545">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15685,11 +15141,10 @@
         <v>1.3918605633080011E-2</v>
       </c>
       <c r="D546">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E546">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15704,11 +15159,10 @@
         <v>1.439322903752327E-2</v>
       </c>
       <c r="D547">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E547">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15723,11 +15177,10 @@
         <v>1.599932461977005E-2</v>
       </c>
       <c r="D548">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E548">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15742,11 +15195,10 @@
         <v>1.400675438344479E-2</v>
       </c>
       <c r="D549">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E549">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15761,11 +15213,10 @@
         <v>1.398787368088961E-2</v>
       </c>
       <c r="D550">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E550">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15780,11 +15231,10 @@
         <v>1.3943334110081199E-2</v>
       </c>
       <c r="D551">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E551">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15799,11 +15249,10 @@
         <v>1.3887958601117131E-2</v>
       </c>
       <c r="D552">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E552">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15818,11 +15267,10 @@
         <v>0.98543304204940796</v>
       </c>
       <c r="D553">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E553">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F553">
@@ -15840,11 +15288,10 @@
         <v>1.368305366486311E-2</v>
       </c>
       <c r="D554">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E554">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15859,11 +15306,10 @@
         <v>1.361551880836487E-2</v>
       </c>
       <c r="D555">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E555">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15878,11 +15324,10 @@
         <v>1.416677143424749E-2</v>
       </c>
       <c r="D556">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E556">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15897,11 +15342,10 @@
         <v>1.365359220653772E-2</v>
       </c>
       <c r="D557">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E557">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15916,11 +15360,10 @@
         <v>1.361540425568819E-2</v>
       </c>
       <c r="D558">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E558">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15935,11 +15378,10 @@
         <v>3.40251624584198E-2</v>
       </c>
       <c r="D559">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E559">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15954,11 +15396,10 @@
         <v>1.3789462856948379E-2</v>
       </c>
       <c r="D560">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E560">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15973,11 +15414,10 @@
         <v>3.107359632849693E-2</v>
       </c>
       <c r="D561">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E561">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15992,11 +15432,10 @@
         <v>1.3897901400923731E-2</v>
       </c>
       <c r="D562">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E562">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -16011,11 +15450,10 @@
         <v>1.501654647290707E-2</v>
       </c>
       <c r="D563">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E563">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -16030,11 +15468,10 @@
         <v>1.375108025968075E-2</v>
       </c>
       <c r="D564">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E564">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -16049,11 +15486,10 @@
         <v>0.21756818890571589</v>
       </c>
       <c r="D565">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E565">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -16068,11 +15504,10 @@
         <v>1.427846401929855E-2</v>
       </c>
       <c r="D566">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E566">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -16087,11 +15522,10 @@
         <v>1.3777199201285841E-2</v>
       </c>
       <c r="D567">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E567">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -16106,11 +15540,10 @@
         <v>1.371705438941717E-2</v>
       </c>
       <c r="D568">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E568">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -16125,11 +15558,10 @@
         <v>0.93214303255081177</v>
       </c>
       <c r="D569">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E569">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F569">
@@ -16147,11 +15579,10 @@
         <v>0.98260349035263062</v>
       </c>
       <c r="D570">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E570">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F570">
@@ -16169,11 +15600,10 @@
         <v>0.96101647615432739</v>
       </c>
       <c r="D571">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E571">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F571">
@@ -16191,11 +15621,10 @@
         <v>0.1135500520467758</v>
       </c>
       <c r="D572">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E572">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -16210,11 +15639,10 @@
         <v>1.376238279044628E-2</v>
       </c>
       <c r="D573">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E573">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -16229,11 +15657,10 @@
         <v>1.3632486574351789E-2</v>
       </c>
       <c r="D574">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E574">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -16248,11 +15675,10 @@
         <v>0.1628552973270416</v>
       </c>
       <c r="D575">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E575">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -16267,11 +15693,10 @@
         <v>1.423979178071022E-2</v>
       </c>
       <c r="D576">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E576">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -16286,11 +15711,10 @@
         <v>0.98547911643981934</v>
       </c>
       <c r="D577">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E577">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F577">
@@ -16308,11 +15732,10 @@
         <v>1.4115928672254091E-2</v>
       </c>
       <c r="D578">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E578">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -16327,11 +15750,10 @@
         <v>0.98524415493011475</v>
       </c>
       <c r="D579">
-        <f t="shared" ref="D579:D642" si="18">IF(C579&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D579:D642" si="9">IF(C579&gt;0.5, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="E579">
-        <f t="shared" ref="E579:E642" si="19">IF(ISBLANK(F579),D579,F579)</f>
         <v>0</v>
       </c>
       <c r="F579">
@@ -16349,11 +15771,10 @@
         <v>0.30890455842018127</v>
       </c>
       <c r="D580">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E580">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16368,11 +15789,10 @@
         <v>2.6634525507688519E-2</v>
       </c>
       <c r="D581">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E581">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16387,11 +15807,10 @@
         <v>0.2173984497785568</v>
       </c>
       <c r="D582">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E582">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16406,11 +15825,10 @@
         <v>2.5697972625494E-2</v>
       </c>
       <c r="D583">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E583">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16425,11 +15843,10 @@
         <v>0.2173984497785568</v>
       </c>
       <c r="D584">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E584">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16444,11 +15861,10 @@
         <v>0.2175859808921814</v>
       </c>
       <c r="D585">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E585">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16463,11 +15879,10 @@
         <v>8.8830806314945221E-2</v>
       </c>
       <c r="D586">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E586">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16482,11 +15897,10 @@
         <v>1.4451621100306509E-2</v>
       </c>
       <c r="D587">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E587">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16501,11 +15915,10 @@
         <v>1.416781730949879E-2</v>
       </c>
       <c r="D588">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E588">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16520,11 +15933,10 @@
         <v>0.97366774082183838</v>
       </c>
       <c r="D589">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E589">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F589">
@@ -16542,11 +15954,10 @@
         <v>1.5945214778184891E-2</v>
       </c>
       <c r="D590">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E590">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16561,11 +15972,10 @@
         <v>1.8579402938485149E-2</v>
       </c>
       <c r="D591">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E591">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16580,11 +15990,10 @@
         <v>0.98321139812469482</v>
       </c>
       <c r="D592">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E592">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F592">
@@ -16602,11 +16011,10 @@
         <v>1.380946207791567E-2</v>
       </c>
       <c r="D593">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E593">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16621,11 +16029,10 @@
         <v>1.362542994320393E-2</v>
       </c>
       <c r="D594">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E594">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16640,11 +16047,10 @@
         <v>1.7445450648665432E-2</v>
       </c>
       <c r="D595">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E595">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16659,11 +16065,10 @@
         <v>2.8577076271176342E-2</v>
       </c>
       <c r="D596">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E596">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16678,11 +16083,10 @@
         <v>1.380261313170195E-2</v>
       </c>
       <c r="D597">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E597">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16697,11 +16101,10 @@
         <v>1.3689812272787091E-2</v>
       </c>
       <c r="D598">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E598">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16716,11 +16119,10 @@
         <v>1.3588277623057371E-2</v>
       </c>
       <c r="D599">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E599">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16735,11 +16137,10 @@
         <v>1.3620899990201E-2</v>
       </c>
       <c r="D600">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E600">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16754,11 +16155,10 @@
         <v>1.3882606290280821E-2</v>
       </c>
       <c r="D601">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E601">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16773,11 +16173,10 @@
         <v>1.3776363804936411E-2</v>
       </c>
       <c r="D602">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E602">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16792,11 +16191,10 @@
         <v>1.5102239325642589E-2</v>
       </c>
       <c r="D603">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E603">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16811,11 +16209,10 @@
         <v>1.4090330339968199E-2</v>
       </c>
       <c r="D604">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E604">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16830,11 +16227,10 @@
         <v>1.3660541735589501E-2</v>
       </c>
       <c r="D605">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E605">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16849,11 +16245,10 @@
         <v>1.521355472505093E-2</v>
       </c>
       <c r="D606">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E606">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16868,11 +16263,10 @@
         <v>1.431098859757185E-2</v>
       </c>
       <c r="D607">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E607">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16887,11 +16281,10 @@
         <v>1.449750177562237E-2</v>
       </c>
       <c r="D608">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E608">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16906,11 +16299,10 @@
         <v>1.3738805428147319E-2</v>
       </c>
       <c r="D609">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E609">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16925,11 +16317,10 @@
         <v>1.9793663173913959E-2</v>
       </c>
       <c r="D610">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E610">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16944,11 +16335,10 @@
         <v>7.5344987213611603E-2</v>
       </c>
       <c r="D611">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E611">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16963,11 +16353,10 @@
         <v>1.3957547955214981E-2</v>
       </c>
       <c r="D612">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E612">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -16982,11 +16371,10 @@
         <v>1.461714040488005E-2</v>
       </c>
       <c r="D613">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E613">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17001,11 +16389,10 @@
         <v>1.370173506438732E-2</v>
       </c>
       <c r="D614">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E614">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17020,11 +16407,10 @@
         <v>1.3713693246245381E-2</v>
       </c>
       <c r="D615">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E615">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17039,11 +16425,10 @@
         <v>1.3636713847517971E-2</v>
       </c>
       <c r="D616">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E616">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17058,11 +16443,10 @@
         <v>1.834770850837231E-2</v>
       </c>
       <c r="D617">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E617">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17077,11 +16461,10 @@
         <v>1.364119723439217E-2</v>
       </c>
       <c r="D618">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E618">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17096,11 +16479,10 @@
         <v>1.370482239872217E-2</v>
       </c>
       <c r="D619">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E619">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17115,11 +16497,10 @@
         <v>1.4594752341508871E-2</v>
       </c>
       <c r="D620">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E620">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17134,11 +16515,10 @@
         <v>1.427989359945059E-2</v>
       </c>
       <c r="D621">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E621">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17153,11 +16533,10 @@
         <v>1.3770934194326401E-2</v>
       </c>
       <c r="D622">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E622">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17172,11 +16551,10 @@
         <v>1.367616932839155E-2</v>
       </c>
       <c r="D623">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E623">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17191,11 +16569,10 @@
         <v>1.4640757814049721E-2</v>
       </c>
       <c r="D624">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E624">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17210,11 +16587,10 @@
         <v>0.9853663444519043</v>
       </c>
       <c r="D625">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E625">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F625">
@@ -17232,11 +16608,10 @@
         <v>2.086879126727581E-2</v>
       </c>
       <c r="D626">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E626">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17251,11 +16626,10 @@
         <v>1.4294438995420929E-2</v>
       </c>
       <c r="D627">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E627">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17270,11 +16644,10 @@
         <v>1.3628667220473289E-2</v>
       </c>
       <c r="D628">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E628">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17289,11 +16662,10 @@
         <v>0.97212660312652588</v>
       </c>
       <c r="D629">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="E629">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F629">
@@ -17311,11 +16683,10 @@
         <v>1.375348586589098E-2</v>
       </c>
       <c r="D630">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E630">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17330,11 +16701,10 @@
         <v>1.408228371292353E-2</v>
       </c>
       <c r="D631">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E631">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17349,11 +16719,10 @@
         <v>1.3718061149120331E-2</v>
       </c>
       <c r="D632">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E632">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17368,11 +16737,10 @@
         <v>1.3911142013967041E-2</v>
       </c>
       <c r="D633">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E633">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17387,11 +16755,10 @@
         <v>1.3776045292615891E-2</v>
       </c>
       <c r="D634">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E634">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17406,11 +16773,10 @@
         <v>1.6175651922821999E-2</v>
       </c>
       <c r="D635">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E635">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17425,11 +16791,10 @@
         <v>1.3627897016704081E-2</v>
       </c>
       <c r="D636">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E636">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17444,11 +16809,10 @@
         <v>4.0387365967035287E-2</v>
       </c>
       <c r="D637">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E637">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17463,11 +16827,10 @@
         <v>0.21747264266014099</v>
       </c>
       <c r="D638">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E638">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17482,11 +16845,10 @@
         <v>1.627855189144611E-2</v>
       </c>
       <c r="D639">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E639">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17501,11 +16863,10 @@
         <v>0.1312669366598129</v>
       </c>
       <c r="D640">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E640">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17520,11 +16881,10 @@
         <v>1.3716693036258221E-2</v>
       </c>
       <c r="D641">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E641">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17539,11 +16899,10 @@
         <v>1.3934537768363949E-2</v>
       </c>
       <c r="D642">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E642">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17558,11 +16917,10 @@
         <v>0.98505741357803345</v>
       </c>
       <c r="D643">
-        <f t="shared" ref="D643:D706" si="20">IF(C643&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D643:D706" si="10">IF(C643&gt;0.5, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="E643">
-        <f t="shared" ref="E643:E706" si="21">IF(ISBLANK(F643),D643,F643)</f>
         <v>0</v>
       </c>
       <c r="F643">
@@ -17580,11 +16938,10 @@
         <v>2.5038497522473339E-2</v>
       </c>
       <c r="D644">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E644">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17599,11 +16956,10 @@
         <v>0.98547619581222534</v>
       </c>
       <c r="D645">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E645">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F645">
@@ -17621,11 +16977,10 @@
         <v>0.9854273796081543</v>
       </c>
       <c r="D646">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E646">
-        <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
@@ -17640,11 +16995,10 @@
         <v>1.420140266418457E-2</v>
       </c>
       <c r="D647">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E647">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17659,11 +17013,10 @@
         <v>1.3622110709548E-2</v>
       </c>
       <c r="D648">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E648">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17678,11 +17031,10 @@
         <v>1.6335407271981239E-2</v>
       </c>
       <c r="D649">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E649">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17697,11 +17049,10 @@
         <v>1.414582133293152E-2</v>
       </c>
       <c r="D650">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E650">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17716,11 +17067,10 @@
         <v>1.370582822710276E-2</v>
       </c>
       <c r="D651">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E651">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17735,11 +17085,10 @@
         <v>4.4091716408729553E-2</v>
       </c>
       <c r="D652">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E652">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17754,11 +17103,10 @@
         <v>1.389285735785961E-2</v>
       </c>
       <c r="D653">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E653">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17773,11 +17121,10 @@
         <v>1.4072456397116181E-2</v>
       </c>
       <c r="D654">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E654">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17792,11 +17139,10 @@
         <v>1.3615230098366741E-2</v>
       </c>
       <c r="D655">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E655">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17811,11 +17157,10 @@
         <v>1.380537264049053E-2</v>
       </c>
       <c r="D656">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E656">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17830,11 +17175,10 @@
         <v>0.21744042634963989</v>
       </c>
       <c r="D657">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E657">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17849,11 +17193,10 @@
         <v>5.8782756328582757E-2</v>
       </c>
       <c r="D658">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E658">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17868,11 +17211,10 @@
         <v>1.4111847616732121E-2</v>
       </c>
       <c r="D659">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E659">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17887,11 +17229,10 @@
         <v>1.7206769436597821E-2</v>
       </c>
       <c r="D660">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E660">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17906,11 +17247,10 @@
         <v>1.3636411167681221E-2</v>
       </c>
       <c r="D661">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E661">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17925,11 +17265,10 @@
         <v>1.361913792788982E-2</v>
       </c>
       <c r="D662">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E662">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17944,11 +17283,10 @@
         <v>1.418539695441723E-2</v>
       </c>
       <c r="D663">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E663">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17963,11 +17301,10 @@
         <v>1.7206769436597821E-2</v>
       </c>
       <c r="D664">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E664">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17982,11 +17319,10 @@
         <v>1.6128012910485271E-2</v>
       </c>
       <c r="D665">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E665">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18001,11 +17337,10 @@
         <v>1.3606728985905651E-2</v>
       </c>
       <c r="D666">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E666">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18020,11 +17355,10 @@
         <v>1.3695273548364639E-2</v>
       </c>
       <c r="D667">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E667">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18039,11 +17373,10 @@
         <v>1.4178989455103871E-2</v>
       </c>
       <c r="D668">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E668">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18058,11 +17391,10 @@
         <v>0.98547792434692383</v>
       </c>
       <c r="D669">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E669">
-        <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
@@ -18077,11 +17409,10 @@
         <v>0.98548722267150879</v>
       </c>
       <c r="D670">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E670">
-        <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
@@ -18096,11 +17427,10 @@
         <v>0.98547124862670898</v>
       </c>
       <c r="D671">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E671">
-        <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
@@ -18115,11 +17445,10 @@
         <v>1.8421964719891552E-2</v>
       </c>
       <c r="D672">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E672">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18134,11 +17463,10 @@
         <v>0.94443804025650024</v>
       </c>
       <c r="D673">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E673">
-        <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
@@ -18153,11 +17481,10 @@
         <v>0.98547190427780151</v>
       </c>
       <c r="D674">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E674">
-        <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
@@ -18172,11 +17499,10 @@
         <v>1.6321821138262749E-2</v>
       </c>
       <c r="D675">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E675">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18191,11 +17517,10 @@
         <v>4.8604473471641541E-2</v>
       </c>
       <c r="D676">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E676">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18210,11 +17535,10 @@
         <v>1.3639106415212149E-2</v>
       </c>
       <c r="D677">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E677">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18229,11 +17553,10 @@
         <v>0.79705828428268433</v>
       </c>
       <c r="D678">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E678">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F678">
@@ -18251,11 +17574,10 @@
         <v>1.3699866831302639E-2</v>
       </c>
       <c r="D679">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E679">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18270,11 +17592,10 @@
         <v>1.4440311118960381E-2</v>
       </c>
       <c r="D680">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E680">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18289,11 +17610,10 @@
         <v>1.9382135942578319E-2</v>
       </c>
       <c r="D681">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E681">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18308,11 +17628,10 @@
         <v>0.98538267612457275</v>
       </c>
       <c r="D682">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E682">
-        <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
@@ -18327,11 +17646,10 @@
         <v>1.3712809421122071E-2</v>
       </c>
       <c r="D683">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E683">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18346,11 +17664,10 @@
         <v>0.90516191720962524</v>
       </c>
       <c r="D684">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E684">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F684">
@@ -18368,11 +17685,10 @@
         <v>5.9797298163175583E-2</v>
       </c>
       <c r="D685">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E685">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18387,11 +17703,10 @@
         <v>1.6217311844229702E-2</v>
       </c>
       <c r="D686">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E686">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18406,11 +17721,10 @@
         <v>1.3758319430053231E-2</v>
       </c>
       <c r="D687">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E687">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18425,11 +17739,10 @@
         <v>1.390589587390423E-2</v>
       </c>
       <c r="D688">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E688">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18444,11 +17757,10 @@
         <v>2.1074943244457241E-2</v>
       </c>
       <c r="D689">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E689">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18463,11 +17775,10 @@
         <v>4.0863074362277978E-2</v>
       </c>
       <c r="D690">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E690">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18482,11 +17793,10 @@
         <v>1.4387311413884159E-2</v>
       </c>
       <c r="D691">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E691">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18501,11 +17811,10 @@
         <v>0.92106783390045166</v>
       </c>
       <c r="D692">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E692">
-        <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
@@ -18520,11 +17829,10 @@
         <v>0.2173302620649338</v>
       </c>
       <c r="D693">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E693">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18539,11 +17847,10 @@
         <v>0.97996270656585693</v>
       </c>
       <c r="D694">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E694">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F694">
@@ -18561,11 +17868,10 @@
         <v>0.15358155965805051</v>
       </c>
       <c r="D695">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E695">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18580,11 +17886,10 @@
         <v>0.97126233577728271</v>
       </c>
       <c r="D696">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E696">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F696">
@@ -18602,11 +17907,10 @@
         <v>0.91562628746032715</v>
       </c>
       <c r="D697">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E697">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="F697">
@@ -18624,11 +17928,10 @@
         <v>1.389361638575792E-2</v>
       </c>
       <c r="D698">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E698">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18643,11 +17946,10 @@
         <v>2.7164209634065632E-2</v>
       </c>
       <c r="D699">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E699">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18662,11 +17964,10 @@
         <v>1.3908021152019501E-2</v>
       </c>
       <c r="D700">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E700">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18681,11 +17982,10 @@
         <v>1.4055107720196251E-2</v>
       </c>
       <c r="D701">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E701">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18700,11 +18000,10 @@
         <v>1.5410300344228739E-2</v>
       </c>
       <c r="D702">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E702">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18719,11 +18018,10 @@
         <v>1.3599269092082981E-2</v>
       </c>
       <c r="D703">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E703">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18738,11 +18036,10 @@
         <v>1.3658543117344379E-2</v>
       </c>
       <c r="D704">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E704">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18757,11 +18054,10 @@
         <v>1.369169820100069E-2</v>
       </c>
       <c r="D705">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E705">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18776,11 +18072,10 @@
         <v>1.380099635571241E-2</v>
       </c>
       <c r="D706">
-        <f t="shared" si="20"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E706">
-        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -18795,11 +18090,10 @@
         <v>1.371708605438471E-2</v>
       </c>
       <c r="D707">
-        <f t="shared" ref="D707:D770" si="22">IF(C707&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D707:D770" si="11">IF(C707&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E707">
-        <f t="shared" ref="E707:E770" si="23">IF(ISBLANK(F707),D707,F707)</f>
         <v>0</v>
       </c>
     </row>
@@ -18814,11 +18108,10 @@
         <v>1.3762266375124449E-2</v>
       </c>
       <c r="D708">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E708">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -18833,11 +18126,10 @@
         <v>1.3674310408532619E-2</v>
       </c>
       <c r="D709">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E709">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -18852,11 +18144,10 @@
         <v>2.2951606661081311E-2</v>
       </c>
       <c r="D710">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E710">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -18871,11 +18162,10 @@
         <v>1.393191237002611E-2</v>
       </c>
       <c r="D711">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E711">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -18890,11 +18180,10 @@
         <v>5.8492124080657959E-2</v>
       </c>
       <c r="D712">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E712">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -18909,11 +18198,10 @@
         <v>1.499268412590027E-2</v>
       </c>
       <c r="D713">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E713">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -18928,11 +18216,10 @@
         <v>1.3931551016867161E-2</v>
       </c>
       <c r="D714">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E714">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -18947,11 +18234,10 @@
         <v>1.3612356036901471E-2</v>
       </c>
       <c r="D715">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E715">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -18966,11 +18252,10 @@
         <v>1.3575067743659019E-2</v>
       </c>
       <c r="D716">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E716">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -18985,11 +18270,10 @@
         <v>0.98445594310760498</v>
       </c>
       <c r="D717">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E717">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="F717">
@@ -19007,11 +18291,10 @@
         <v>3.2724414020776749E-2</v>
       </c>
       <c r="D718">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E718">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -19026,11 +18309,10 @@
         <v>1.5052685514092451E-2</v>
       </c>
       <c r="D719">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E719">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -19045,11 +18327,10 @@
         <v>0.98546832799911499</v>
       </c>
       <c r="D720">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E720">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="F720">
@@ -19067,11 +18348,10 @@
         <v>1.39257088303566E-2</v>
       </c>
       <c r="D721">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E721">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -19086,11 +18366,10 @@
         <v>0.95674365758895874</v>
       </c>
       <c r="D722">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E722">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="F722">
@@ -19108,11 +18387,10 @@
         <v>0.21766412258148191</v>
       </c>
       <c r="D723">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E723">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -19127,11 +18405,10 @@
         <v>2.0273685455322269E-2</v>
       </c>
       <c r="D724">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E724">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -19146,11 +18423,10 @@
         <v>1.3615326955914501E-2</v>
       </c>
       <c r="D725">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E725">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -19165,11 +18441,10 @@
         <v>1.416846364736557E-2</v>
       </c>
       <c r="D726">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E726">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -19184,11 +18459,10 @@
         <v>1.3658543117344379E-2</v>
       </c>
       <c r="D727">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E727">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -19203,11 +18477,10 @@
         <v>1.393191237002611E-2</v>
       </c>
       <c r="D728">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E728">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -19222,11 +18495,10 @@
         <v>5.8492124080657959E-2</v>
       </c>
       <c r="D729">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E729">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -19241,11 +18513,10 @@
         <v>1.499268412590027E-2</v>
       </c>
       <c r="D730">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E730">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -19260,11 +18531,10 @@
         <v>1.37574253603816E-2</v>
       </c>
       <c r="D731">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E731">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -19279,11 +18549,10 @@
         <v>1.3612356036901471E-2</v>
       </c>
       <c r="D732">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E732">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -19298,11 +18567,10 @@
         <v>1.3575067743659019E-2</v>
       </c>
       <c r="D733">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E733">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -19317,11 +18585,10 @@
         <v>2.638673223555088E-2</v>
       </c>
       <c r="D734">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E734">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -19336,11 +18603,10 @@
         <v>0.98548233509063721</v>
       </c>
       <c r="D735">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E735">
-        <f t="shared" si="23"/>
         <v>1</v>
       </c>
     </row>
@@ -19355,11 +18621,10 @@
         <v>1.364862360060215E-2</v>
       </c>
       <c r="D736">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E736">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -19374,11 +18639,10 @@
         <v>1.452540513128042E-2</v>
       </c>
       <c r="D737">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E737">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -19393,11 +18657,10 @@
         <v>1.358955539762974E-2</v>
       </c>
       <c r="D738">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E738">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -19412,11 +18675,10 @@
         <v>1.3549096882343291E-2</v>
       </c>
       <c r="D739">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E739">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -19431,11 +18693,10 @@
         <v>1.3691010884940621E-2</v>
       </c>
       <c r="D740">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E740">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -19450,11 +18711,10 @@
         <v>1.359099987894297E-2</v>
       </c>
       <c r="D741">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E741">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -19469,11 +18729,10 @@
         <v>1.36199314147234E-2</v>
       </c>
       <c r="D742">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E742">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -19488,11 +18747,10 @@
         <v>0.98546314239501953</v>
       </c>
       <c r="D743">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E743">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="F743">
@@ -19510,11 +18768,10 @@
         <v>1.8174255266785622E-2</v>
       </c>
       <c r="D744">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E744">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -19529,11 +18786,10 @@
         <v>1.3654978945851329E-2</v>
       </c>
       <c r="D745">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E745">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -19548,11 +18804,10 @@
         <v>1.3631756417453291E-2</v>
       </c>
       <c r="D746">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E746">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -19567,11 +18822,10 @@
         <v>1.8523231148719791E-2</v>
       </c>
       <c r="D747">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E747">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -19586,11 +18840,10 @@
         <v>4.4126257300376892E-2</v>
       </c>
       <c r="D748">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E748">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -19605,11 +18858,10 @@
         <v>1.44714992493391E-2</v>
       </c>
       <c r="D749">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E749">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -19624,11 +18876,10 @@
         <v>1.364869251847267E-2</v>
       </c>
       <c r="D750">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E750">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -19643,11 +18894,10 @@
         <v>1.4261306263506411E-2</v>
       </c>
       <c r="D751">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E751">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -19662,11 +18912,10 @@
         <v>1.359398663043976E-2</v>
       </c>
       <c r="D752">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E752">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -19681,11 +18930,10 @@
         <v>1.5445558354258541E-2</v>
       </c>
       <c r="D753">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E753">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -19700,11 +18948,10 @@
         <v>1.446568686515093E-2</v>
       </c>
       <c r="D754">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E754">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -19719,11 +18966,10 @@
         <v>1.534934155642986E-2</v>
       </c>
       <c r="D755">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E755">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -19738,11 +18984,10 @@
         <v>1.391234528273344E-2</v>
       </c>
       <c r="D756">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E756">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -19757,11 +19002,10 @@
         <v>1.424028072506189E-2</v>
       </c>
       <c r="D757">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E757">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -19776,11 +19020,10 @@
         <v>1.3987169601023201E-2</v>
       </c>
       <c r="D758">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E758">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -19795,11 +19038,10 @@
         <v>1.369955763220787E-2</v>
       </c>
       <c r="D759">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E759">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -19814,11 +19056,10 @@
         <v>1.367297954857349E-2</v>
       </c>
       <c r="D760">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E760">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -19833,11 +19074,10 @@
         <v>1.464677881449461E-2</v>
       </c>
       <c r="D761">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E761">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -19852,11 +19092,10 @@
         <v>1.369931269437075E-2</v>
       </c>
       <c r="D762">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E762">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -19871,11 +19110,10 @@
         <v>0.98537886142730713</v>
       </c>
       <c r="D763">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E763">
-        <f t="shared" si="23"/>
         <v>1</v>
       </c>
     </row>
@@ -19890,11 +19128,10 @@
         <v>1.391333900392056E-2</v>
       </c>
       <c r="D764">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E764">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -19909,11 +19146,10 @@
         <v>1.457304414361715E-2</v>
       </c>
       <c r="D765">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E765">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -19928,11 +19164,10 @@
         <v>1.3780348002910611E-2</v>
       </c>
       <c r="D766">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E766">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -19947,11 +19182,10 @@
         <v>0.98547112941741943</v>
       </c>
       <c r="D767">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E767">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="F767">
@@ -19969,11 +19203,10 @@
         <v>0.9854162335395813</v>
       </c>
       <c r="D768">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E768">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="F768">
@@ -19991,11 +19224,10 @@
         <v>1.3789623975753781E-2</v>
       </c>
       <c r="D769">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E769">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -20010,11 +19242,10 @@
         <v>1.393976807594299E-2</v>
       </c>
       <c r="D770">
-        <f t="shared" si="22"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E770">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -20029,11 +19260,10 @@
         <v>0.98391056060791016</v>
       </c>
       <c r="D771">
-        <f t="shared" ref="D771:D776" si="24">IF(C771&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D771:D776" si="12">IF(C771&gt;0.5, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="E771">
-        <f t="shared" ref="E771:E776" si="25">IF(ISBLANK(F771),D771,F771)</f>
         <v>1</v>
       </c>
     </row>
@@ -20048,11 +19278,10 @@
         <v>1.639595627784729E-2</v>
       </c>
       <c r="D772">
-        <f t="shared" si="24"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E772">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -20067,11 +19296,10 @@
         <v>1.6837721690535549E-2</v>
       </c>
       <c r="D773">
-        <f t="shared" si="24"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E773">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -20086,11 +19314,10 @@
         <v>2.7806440368294719E-2</v>
       </c>
       <c r="D774">
-        <f t="shared" si="24"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E774">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -20105,11 +19332,10 @@
         <v>0.74374520778656006</v>
       </c>
       <c r="D775">
-        <f t="shared" si="24"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="E775">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="F775">
@@ -20127,11 +19353,10 @@
         <v>0.98545897006988525</v>
       </c>
       <c r="D776">
-        <f t="shared" si="24"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="E776">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="F776">
